--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/adversary_power/500nodes(SWIB)/500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/adversary_power/500nodes(SWIB)/500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\adversary_power\500nodes(SWIB)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F023A2-C8B7-4DC3-A711-5EE520032ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CE834F-66BE-4C43-8ADB-E5C288ECBBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="17">
   <si>
     <t>Blocksize(KB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,9 +75,6 @@
     <t>LEADER_ID_type</t>
   </si>
   <si>
-    <t>Failed to generate the first block</t>
-  </si>
-  <si>
     <t>adversary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +84,14 @@
   </si>
   <si>
     <t>average_latency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num_TXs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throughput</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,13 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1662,52 +1666,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y121"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Y49" sqref="Y49:Y58"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44:W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
       <c r="N1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1719,25 +1723,25 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1972</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
@@ -1749,25 +1753,25 @@
         <v>6</v>
       </c>
       <c r="R2">
-        <v>24421</v>
+        <v>13364</v>
       </c>
       <c r="S2" t="s">
         <v>7</v>
       </c>
       <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="W2">
+        <v>2047</v>
+      </c>
+      <c r="U2">
         <f>R2-H2</f>
-        <v>24421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1785,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>26329</v>
+        <v>15360</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -1797,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
@@ -1815,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="R3">
-        <v>40077</v>
+        <v>25428</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
@@ -1823,17 +1827,17 @@
       <c r="T3">
         <v>2047</v>
       </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W66" si="0">R3-H3</f>
-        <v>13748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0">R3-H3</f>
+        <v>10068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1851,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <v>41972</v>
+        <v>27426</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
@@ -1863,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="M4" t="s">
         <v>11</v>
@@ -1881,7 +1885,7 @@
         <v>6</v>
       </c>
       <c r="R4">
-        <v>53089</v>
+        <v>38948</v>
       </c>
       <c r="S4" t="s">
         <v>7</v>
@@ -1889,17 +1893,17 @@
       <c r="T4">
         <v>2047</v>
       </c>
-      <c r="W4">
+      <c r="U4">
         <f t="shared" si="0"/>
-        <v>11117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1917,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>54962</v>
+        <v>40942</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1929,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
@@ -1947,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="R5">
-        <v>65432</v>
+        <v>50405</v>
       </c>
       <c r="S5" t="s">
         <v>7</v>
@@ -1955,17 +1959,17 @@
       <c r="T5">
         <v>2047</v>
       </c>
-      <c r="W5">
+      <c r="U5">
         <f t="shared" si="0"/>
-        <v>10470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1983,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>67340</v>
+        <v>52412</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1995,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>200</v>
+        <v>392</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
@@ -2013,7 +2017,7 @@
         <v>6</v>
       </c>
       <c r="R6">
-        <v>75864</v>
+        <v>63750</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
@@ -2021,17 +2025,17 @@
       <c r="T6">
         <v>2047</v>
       </c>
-      <c r="W6">
+      <c r="U6">
         <f t="shared" si="0"/>
-        <v>8524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2049,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>77763</v>
+        <v>65711</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -2061,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="M7" t="s">
         <v>11</v>
@@ -2079,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>86778</v>
+        <v>74728</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -2087,17 +2091,17 @@
       <c r="T7">
         <v>2047</v>
       </c>
-      <c r="W7">
+      <c r="U7">
         <f t="shared" si="0"/>
-        <v>9015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2115,7 +2119,7 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>88688</v>
+        <v>76716</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -2127,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
         <v>11</v>
@@ -2145,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="R8">
-        <v>101967</v>
+        <v>86471</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -2153,17 +2157,17 @@
       <c r="T8">
         <v>2047</v>
       </c>
-      <c r="W8">
+      <c r="U8">
         <f t="shared" si="0"/>
-        <v>13279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2181,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="H9">
-        <v>103839</v>
+        <v>88474</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -2193,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="M9" t="s">
         <v>11</v>
@@ -2211,7 +2215,7 @@
         <v>6</v>
       </c>
       <c r="R9">
-        <v>116608</v>
+        <v>98524</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
@@ -2219,17 +2223,17 @@
       <c r="T9">
         <v>2047</v>
       </c>
-      <c r="W9">
+      <c r="U9">
         <f t="shared" si="0"/>
-        <v>12769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -2247,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>118509</v>
+        <v>100529</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -2259,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
@@ -2277,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="R10">
-        <v>127608</v>
+        <v>110295</v>
       </c>
       <c r="S10" t="s">
         <v>7</v>
@@ -2285,17 +2289,17 @@
       <c r="T10">
         <v>2047</v>
       </c>
-      <c r="W10">
+      <c r="U10">
         <f t="shared" si="0"/>
-        <v>9099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>450</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2313,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="H11">
-        <v>129517</v>
+        <v>112297</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -2325,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>450</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s">
         <v>11</v>
@@ -2343,7 +2347,7 @@
         <v>6</v>
       </c>
       <c r="R11">
-        <v>145433</v>
+        <v>119910</v>
       </c>
       <c r="S11" t="s">
         <v>7</v>
@@ -2351,63 +2355,51 @@
       <c r="T11">
         <v>2047</v>
       </c>
-      <c r="U11" s="2">
-        <f>R11-H2</f>
-        <v>145433</v>
-      </c>
-      <c r="V11">
-        <f>R11-R2</f>
-        <v>121012</v>
-      </c>
-      <c r="W11">
+      <c r="U11">
         <f t="shared" si="0"/>
-        <v>15916</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
         <v>9</v>
       </c>
       <c r="L12">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
       </c>
       <c r="N12">
-        <v>25</v>
-      </c>
-      <c r="U12" s="3">
-        <f t="shared" ref="U12:U75" si="1">R12-H3</f>
-        <v>-26329</v>
-      </c>
-      <c r="V12">
-        <f t="shared" ref="V12:V75" si="2">R12-R3</f>
-        <v>-40077</v>
-      </c>
-      <c r="W12" s="2">
-        <f>AVERAGE(W2:W11)</f>
-        <v>12835.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="T12">
+        <f>AVERAGE(T2:T11)</f>
+        <v>2047</v>
+      </c>
+      <c r="U12" s="2">
+        <f>AVERAGE(U2:U11)</f>
+        <v>9998.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -2425,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-20000</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -2437,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s">
         <v>11</v>
@@ -2455,7 +2447,7 @@
         <v>6</v>
       </c>
       <c r="R13">
-        <v>23870</v>
+        <v>5430</v>
       </c>
       <c r="S13" t="s">
         <v>7</v>
@@ -2463,25 +2455,17 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13" s="3">
-        <f t="shared" si="1"/>
-        <v>-18102</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="2"/>
-        <v>-29219</v>
-      </c>
-      <c r="W13">
+      <c r="U13">
         <f t="shared" si="0"/>
-        <v>23870</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>25430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -2499,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>25742</v>
+        <v>7431</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2511,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s">
         <v>11</v>
@@ -2529,7 +2513,7 @@
         <v>6</v>
       </c>
       <c r="R14">
-        <v>37649</v>
+        <v>17530</v>
       </c>
       <c r="S14" t="s">
         <v>7</v>
@@ -2537,25 +2521,17 @@
       <c r="T14">
         <v>2047</v>
       </c>
-      <c r="U14" s="3">
-        <f t="shared" si="1"/>
-        <v>-17313</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="2"/>
-        <v>-27783</v>
-      </c>
-      <c r="W14">
+      <c r="U14">
         <f t="shared" si="0"/>
-        <v>11907</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>10099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -2573,7 +2549,7 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>39544</v>
+        <v>19530</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2585,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="M15" t="s">
         <v>11</v>
@@ -2603,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="R15">
-        <v>50636</v>
+        <v>29004</v>
       </c>
       <c r="S15" t="s">
         <v>7</v>
@@ -2611,25 +2587,17 @@
       <c r="T15">
         <v>2047</v>
       </c>
-      <c r="U15" s="3">
-        <f t="shared" si="1"/>
-        <v>-16704</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="2"/>
-        <v>-25228</v>
-      </c>
-      <c r="W15">
+      <c r="U15">
         <f t="shared" si="0"/>
-        <v>11092</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>150</v>
+        <v>467</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2647,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="H16">
-        <v>52510</v>
+        <v>31005</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2659,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>150</v>
+        <v>467</v>
       </c>
       <c r="M16" t="s">
         <v>11</v>
@@ -2677,7 +2645,7 @@
         <v>6</v>
       </c>
       <c r="R16">
-        <v>60864</v>
+        <v>41595</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>
@@ -2685,25 +2653,17 @@
       <c r="T16">
         <v>2047</v>
       </c>
-      <c r="U16" s="3">
-        <f t="shared" si="1"/>
-        <v>-16899</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="2"/>
-        <v>-25914</v>
-      </c>
-      <c r="W16">
+      <c r="U16">
         <f t="shared" si="0"/>
-        <v>8354</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+        <v>10590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -2721,7 +2681,7 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <v>62751</v>
+        <v>43568</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2733,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s">
         <v>11</v>
@@ -2751,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="R17">
-        <v>72341</v>
+        <v>53647</v>
       </c>
       <c r="S17" t="s">
         <v>7</v>
@@ -2759,25 +2719,17 @@
       <c r="T17">
         <v>2047</v>
       </c>
-      <c r="U17" s="3">
-        <f t="shared" si="1"/>
-        <v>-16347</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="2"/>
-        <v>-29626</v>
-      </c>
-      <c r="W17">
+      <c r="U17">
         <f t="shared" si="0"/>
-        <v>9590</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+        <v>10079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2795,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>74216</v>
+        <v>55649</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2807,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="M18" t="s">
         <v>11</v>
@@ -2825,7 +2777,7 @@
         <v>6</v>
       </c>
       <c r="R18">
-        <v>82949</v>
+        <v>66723</v>
       </c>
       <c r="S18" t="s">
         <v>7</v>
@@ -2833,25 +2785,17 @@
       <c r="T18">
         <v>2047</v>
       </c>
-      <c r="U18" s="3">
-        <f t="shared" si="1"/>
-        <v>-20890</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="2"/>
-        <v>-33659</v>
-      </c>
-      <c r="W18">
+      <c r="U18">
         <f t="shared" si="0"/>
-        <v>8733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -2869,7 +2813,7 @@
         <v>4</v>
       </c>
       <c r="H19">
-        <v>84836</v>
+        <v>68722</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2881,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="M19" t="s">
         <v>11</v>
@@ -2899,7 +2843,7 @@
         <v>6</v>
       </c>
       <c r="R19">
-        <v>96536</v>
+        <v>77693</v>
       </c>
       <c r="S19" t="s">
         <v>7</v>
@@ -2907,31 +2851,23 @@
       <c r="T19">
         <v>2047</v>
       </c>
-      <c r="U19" s="3">
-        <f t="shared" si="1"/>
-        <v>-21973</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="2"/>
-        <v>-31072</v>
-      </c>
-      <c r="W19">
+      <c r="U19">
         <f t="shared" si="0"/>
-        <v>11700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -2943,25 +2879,25 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>98408</v>
+        <v>57694</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
       </c>
       <c r="J20">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="M20" t="s">
         <v>11</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
         <v>3</v>
@@ -2973,33 +2909,25 @@
         <v>6</v>
       </c>
       <c r="R20">
-        <v>110077</v>
+        <v>85020</v>
       </c>
       <c r="S20" t="s">
         <v>7</v>
       </c>
       <c r="T20">
-        <v>2047</v>
-      </c>
-      <c r="U20" s="3">
-        <f t="shared" si="1"/>
-        <v>-19440</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="2"/>
-        <v>-35356</v>
-      </c>
-      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="0"/>
-        <v>11669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+        <v>27326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -3017,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <v>111960</v>
+        <v>87017</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -3029,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="M21" t="s">
         <v>11</v>
@@ -3047,7 +2975,7 @@
         <v>6</v>
       </c>
       <c r="R21">
-        <v>121307</v>
+        <v>98988</v>
       </c>
       <c r="S21" t="s">
         <v>7</v>
@@ -3055,25 +2983,17 @@
       <c r="T21">
         <v>2047</v>
       </c>
-      <c r="U21" s="3">
-        <f t="shared" si="1"/>
-        <v>121307</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="2"/>
-        <v>121307</v>
-      </c>
-      <c r="W21">
+      <c r="U21">
         <f t="shared" si="0"/>
-        <v>9347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -3091,7 +3011,7 @@
         <v>4</v>
       </c>
       <c r="H22">
-        <v>123199</v>
+        <v>100968</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -3103,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="M22" t="s">
         <v>11</v>
@@ -3121,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="R22">
-        <v>132284</v>
+        <v>111605</v>
       </c>
       <c r="S22" t="s">
         <v>7</v>
@@ -3129,69 +3049,57 @@
       <c r="T22">
         <v>2047</v>
       </c>
-      <c r="U22" s="2">
-        <f t="shared" si="1"/>
-        <v>132284</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="2"/>
-        <v>108414</v>
-      </c>
-      <c r="W22">
+      <c r="U22">
         <f t="shared" si="0"/>
-        <v>9085</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+        <v>10637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s">
         <v>9</v>
       </c>
       <c r="L23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M23" t="s">
         <v>10</v>
       </c>
       <c r="N23">
-        <v>50</v>
-      </c>
-      <c r="U23" s="3">
-        <f t="shared" si="1"/>
-        <v>-25742</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="2"/>
-        <v>-37649</v>
-      </c>
-      <c r="W23" s="2">
-        <f>AVERAGE(W13:W22)</f>
-        <v>11534.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="T23">
+        <f>AVERAGE(T13:T22)</f>
+        <v>1637.6</v>
+      </c>
+      <c r="U23" s="2">
+        <f>AVERAGE(U13:U22)</f>
+        <v>13565.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
@@ -3203,25 +3111,25 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1946</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K24" t="s">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="M24" t="s">
         <v>11</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>3</v>
@@ -3233,33 +3141,25 @@
         <v>6</v>
       </c>
       <c r="R24">
-        <v>25292</v>
+        <v>9536</v>
       </c>
       <c r="S24" t="s">
         <v>7</v>
       </c>
       <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <f t="shared" si="1"/>
-        <v>-14252</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="2"/>
-        <v>-25344</v>
-      </c>
-      <c r="W24">
+        <v>2047</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="0"/>
-        <v>25292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>421</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -3277,7 +3177,7 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>25293</v>
+        <v>-10463</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -3289,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>421</v>
       </c>
       <c r="M25" t="s">
         <v>11</v>
@@ -3307,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="R25">
-        <v>53401</v>
+        <v>15017</v>
       </c>
       <c r="S25" t="s">
         <v>7</v>
@@ -3315,25 +3215,17 @@
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25" s="3">
-        <f t="shared" si="1"/>
-        <v>891</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="2"/>
-        <v>-7463</v>
-      </c>
-      <c r="W25">
+      <c r="U25">
         <f t="shared" si="0"/>
-        <v>28108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+        <v>25480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>485</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -3351,7 +3243,7 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>55273</v>
+        <v>17029</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3363,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>485</v>
       </c>
       <c r="M26" t="s">
         <v>11</v>
@@ -3381,7 +3273,7 @@
         <v>6</v>
       </c>
       <c r="R26">
-        <v>64711</v>
+        <v>26172</v>
       </c>
       <c r="S26" t="s">
         <v>7</v>
@@ -3389,25 +3281,17 @@
       <c r="T26">
         <v>2047</v>
       </c>
-      <c r="U26" s="3">
-        <f t="shared" si="1"/>
-        <v>1960</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="2"/>
-        <v>-7630</v>
-      </c>
-      <c r="W26">
+      <c r="U26">
         <f t="shared" si="0"/>
-        <v>9438</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -3425,7 +3309,7 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <v>66560</v>
+        <v>28166</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3437,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s">
         <v>11</v>
@@ -3455,7 +3339,7 @@
         <v>6</v>
       </c>
       <c r="R27">
-        <v>74799</v>
+        <v>37029</v>
       </c>
       <c r="S27" t="s">
         <v>7</v>
@@ -3463,25 +3347,17 @@
       <c r="T27">
         <v>2047</v>
       </c>
-      <c r="U27" s="3">
-        <f t="shared" si="1"/>
-        <v>583</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="2"/>
-        <v>-8150</v>
-      </c>
-      <c r="W27">
+      <c r="U27">
         <f t="shared" si="0"/>
-        <v>8239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>488</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -3499,7 +3375,7 @@
         <v>4</v>
       </c>
       <c r="H28">
-        <v>76626</v>
+        <v>39026</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3511,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>488</v>
       </c>
       <c r="M28" t="s">
         <v>11</v>
@@ -3529,7 +3405,7 @@
         <v>6</v>
       </c>
       <c r="R28">
-        <v>84184</v>
+        <v>47818</v>
       </c>
       <c r="S28" t="s">
         <v>7</v>
@@ -3537,25 +3413,17 @@
       <c r="T28">
         <v>2047</v>
       </c>
-      <c r="U28" s="3">
-        <f t="shared" si="1"/>
-        <v>-652</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="2"/>
-        <v>-12352</v>
-      </c>
-      <c r="W28">
+      <c r="U28">
         <f t="shared" si="0"/>
-        <v>7558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -3573,7 +3441,7 @@
         <v>4</v>
       </c>
       <c r="H29">
-        <v>86071</v>
+        <v>49784</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3585,7 +3453,7 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s">
         <v>11</v>
@@ -3603,7 +3471,7 @@
         <v>6</v>
       </c>
       <c r="R29">
-        <v>94220</v>
+        <v>60782</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
@@ -3611,25 +3479,17 @@
       <c r="T29">
         <v>2047</v>
       </c>
-      <c r="U29" s="3">
-        <f t="shared" si="1"/>
-        <v>-4188</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="2"/>
-        <v>-15857</v>
-      </c>
-      <c r="W29">
+      <c r="U29">
         <f t="shared" si="0"/>
-        <v>8149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+        <v>10998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -3647,7 +3507,7 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>96084</v>
+        <v>62768</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3659,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s">
         <v>11</v>
@@ -3677,7 +3537,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>103998</v>
+        <v>73041</v>
       </c>
       <c r="S30" t="s">
         <v>7</v>
@@ -3685,25 +3545,17 @@
       <c r="T30">
         <v>2047</v>
       </c>
-      <c r="U30" s="3">
-        <f t="shared" si="1"/>
-        <v>-7962</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="2"/>
-        <v>-17309</v>
-      </c>
-      <c r="W30">
+      <c r="U30">
         <f t="shared" si="0"/>
-        <v>7914</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+        <v>10273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -3721,7 +3573,7 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <v>105853</v>
+        <v>75034</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3733,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="M31" t="s">
         <v>11</v>
@@ -3751,7 +3603,7 @@
         <v>6</v>
       </c>
       <c r="R31">
-        <v>115175</v>
+        <v>82873</v>
       </c>
       <c r="S31" t="s">
         <v>7</v>
@@ -3759,31 +3611,23 @@
       <c r="T31">
         <v>2047</v>
       </c>
-      <c r="U31" s="3">
-        <f t="shared" si="1"/>
-        <v>-8024</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="2"/>
-        <v>-17109</v>
-      </c>
-      <c r="W31">
+      <c r="U31">
         <f t="shared" si="0"/>
-        <v>9322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
@@ -3795,25 +3639,25 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <v>117006</v>
+        <v>62874</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
       </c>
       <c r="J32">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
         <v>2</v>
       </c>
       <c r="L32">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="M32" t="s">
         <v>11</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="s">
         <v>3</v>
@@ -3825,25 +3669,17 @@
         <v>6</v>
       </c>
       <c r="R32">
-        <v>127491</v>
+        <v>89223</v>
       </c>
       <c r="S32" t="s">
         <v>7</v>
       </c>
       <c r="T32">
-        <v>2047</v>
-      </c>
-      <c r="U32" s="3">
-        <f t="shared" si="1"/>
-        <v>127491</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="2"/>
-        <v>127491</v>
-      </c>
-      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="0"/>
-        <v>10485</v>
+        <v>26349</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
@@ -3851,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="B33">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -3869,7 +3705,7 @@
         <v>4</v>
       </c>
       <c r="H33">
-        <v>129346</v>
+        <v>91175</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3881,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="M33" t="s">
         <v>11</v>
@@ -3899,7 +3735,7 @@
         <v>6</v>
       </c>
       <c r="R33">
-        <v>141803</v>
+        <v>99022</v>
       </c>
       <c r="S33" t="s">
         <v>7</v>
@@ -3907,17 +3743,9 @@
       <c r="T33">
         <v>2047</v>
       </c>
-      <c r="U33" s="2">
-        <f t="shared" si="1"/>
-        <v>141803</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="2"/>
-        <v>116511</v>
-      </c>
-      <c r="W33">
+      <c r="U33">
         <f t="shared" si="0"/>
-        <v>12457</v>
+        <v>7847</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
@@ -3925,37 +3753,33 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s">
         <v>9</v>
       </c>
       <c r="L34">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="M34" t="s">
         <v>10</v>
       </c>
       <c r="N34">
-        <v>75</v>
-      </c>
-      <c r="U34" s="3">
-        <f t="shared" si="1"/>
-        <v>-25293</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="2"/>
-        <v>-53401</v>
-      </c>
-      <c r="W34" s="2">
-        <f>AVERAGE(W24:W33)</f>
-        <v>12696.2</v>
+        <v>100</v>
+      </c>
+      <c r="T34">
+        <f>AVERAGE(T24:T33)</f>
+        <v>1637.6</v>
+      </c>
+      <c r="U34" s="2">
+        <f>AVERAGE(U24:U33)</f>
+        <v>12317.4</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
@@ -3963,13 +3787,13 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
@@ -3981,25 +3805,25 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1991</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K35" t="s">
         <v>2</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M35" t="s">
         <v>11</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
         <v>3</v>
@@ -4011,25 +3835,17 @@
         <v>6</v>
       </c>
       <c r="R35">
-        <v>22832</v>
+        <v>9458</v>
       </c>
       <c r="S35" t="s">
         <v>7</v>
       </c>
       <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <f t="shared" si="1"/>
-        <v>-32441</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="2"/>
-        <v>-41879</v>
-      </c>
-      <c r="W35">
+        <v>2047</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="0"/>
-        <v>22832</v>
+        <v>7467</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
@@ -4037,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -4055,7 +3871,7 @@
         <v>4</v>
       </c>
       <c r="H36">
-        <v>22833</v>
+        <v>-10541</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -4067,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="L36">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M36" t="s">
         <v>11</v>
@@ -4085,7 +3901,7 @@
         <v>6</v>
       </c>
       <c r="R36">
-        <v>47575</v>
+        <v>13789</v>
       </c>
       <c r="S36" t="s">
         <v>7</v>
@@ -4093,17 +3909,9 @@
       <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36" s="3">
-        <f t="shared" si="1"/>
-        <v>-18985</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="2"/>
-        <v>-27224</v>
-      </c>
-      <c r="W36">
+      <c r="U36">
         <f t="shared" si="0"/>
-        <v>24742</v>
+        <v>24330</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -4111,13 +3919,13 @@
         <v>2</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
@@ -4129,25 +3937,25 @@
         <v>4</v>
       </c>
       <c r="H37">
-        <v>47576</v>
+        <v>15788</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K37" t="s">
         <v>2</v>
       </c>
       <c r="L37">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s">
         <v>11</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
         <v>3</v>
@@ -4159,25 +3967,17 @@
         <v>6</v>
       </c>
       <c r="R37">
-        <v>72358</v>
+        <v>23787</v>
       </c>
       <c r="S37" t="s">
         <v>7</v>
       </c>
       <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37" s="3">
-        <f t="shared" si="1"/>
-        <v>-4268</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="2"/>
-        <v>-11826</v>
-      </c>
-      <c r="W37">
+        <v>2047</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="0"/>
-        <v>24782</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
@@ -4185,13 +3985,13 @@
         <v>2</v>
       </c>
       <c r="B38">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
@@ -4203,25 +4003,25 @@
         <v>4</v>
       </c>
       <c r="H38">
-        <v>74189</v>
+        <v>3788</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
       </c>
       <c r="J38">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
       </c>
       <c r="L38">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="M38" t="s">
         <v>11</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="s">
         <v>3</v>
@@ -4233,25 +4033,17 @@
         <v>6</v>
       </c>
       <c r="R38">
-        <v>81375</v>
+        <v>29340</v>
       </c>
       <c r="S38" t="s">
         <v>7</v>
       </c>
       <c r="T38">
-        <v>2047</v>
-      </c>
-      <c r="U38" s="3">
-        <f t="shared" si="1"/>
-        <v>-4696</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="2"/>
-        <v>-12845</v>
-      </c>
-      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="0"/>
-        <v>7186</v>
+        <v>25552</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
@@ -4259,7 +4051,7 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -4277,7 +4069,7 @@
         <v>4</v>
       </c>
       <c r="H39">
-        <v>83199</v>
+        <v>31298</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -4289,7 +4081,7 @@
         <v>2</v>
       </c>
       <c r="L39">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="M39" t="s">
         <v>11</v>
@@ -4307,7 +4099,7 @@
         <v>6</v>
       </c>
       <c r="R39">
-        <v>91629</v>
+        <v>38260</v>
       </c>
       <c r="S39" t="s">
         <v>7</v>
@@ -4315,17 +4107,9 @@
       <c r="T39">
         <v>2047</v>
       </c>
-      <c r="U39" s="3">
-        <f t="shared" si="1"/>
-        <v>-4455</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="2"/>
-        <v>-12369</v>
-      </c>
-      <c r="W39">
+      <c r="U39">
         <f t="shared" si="0"/>
-        <v>8430</v>
+        <v>6962</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
@@ -4333,13 +4117,13 @@
         <v>2</v>
       </c>
       <c r="B40">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
@@ -4351,25 +4135,25 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>93453</v>
+        <v>18261</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
       </c>
       <c r="J40">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
         <v>2</v>
       </c>
       <c r="L40">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="M40" t="s">
         <v>11</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="s">
         <v>3</v>
@@ -4381,25 +4165,17 @@
         <v>6</v>
       </c>
       <c r="R40">
-        <v>102654</v>
+        <v>43900</v>
       </c>
       <c r="S40" t="s">
         <v>7</v>
       </c>
       <c r="T40">
-        <v>2047</v>
-      </c>
-      <c r="U40" s="3">
-        <f t="shared" si="1"/>
-        <v>-3199</v>
-      </c>
-      <c r="V40">
-        <f t="shared" si="2"/>
-        <v>-12521</v>
-      </c>
-      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="U40">
         <f t="shared" si="0"/>
-        <v>9201</v>
+        <v>25639</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
@@ -4407,7 +4183,7 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -4425,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>104501</v>
+        <v>45907</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4437,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="M41" t="s">
         <v>11</v>
@@ -4455,7 +4231,7 @@
         <v>6</v>
       </c>
       <c r="R41">
-        <v>112228</v>
+        <v>54934</v>
       </c>
       <c r="S41" t="s">
         <v>7</v>
@@ -4463,17 +4239,9 @@
       <c r="T41">
         <v>2047</v>
       </c>
-      <c r="U41" s="3">
-        <f t="shared" si="1"/>
-        <v>-4778</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="2"/>
-        <v>-15263</v>
-      </c>
-      <c r="W41">
+      <c r="U41">
         <f t="shared" si="0"/>
-        <v>7727</v>
+        <v>9027</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -4481,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="B42">
-        <v>350</v>
+        <v>484</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -4499,7 +4267,7 @@
         <v>4</v>
       </c>
       <c r="H42">
-        <v>114061</v>
+        <v>56929</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4511,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="L42">
-        <v>350</v>
+        <v>484</v>
       </c>
       <c r="M42" t="s">
         <v>11</v>
@@ -4529,7 +4297,7 @@
         <v>6</v>
       </c>
       <c r="R42">
-        <v>123156</v>
+        <v>64038</v>
       </c>
       <c r="S42" t="s">
         <v>7</v>
@@ -4537,17 +4305,9 @@
       <c r="T42">
         <v>2047</v>
       </c>
-      <c r="U42" s="3">
-        <f t="shared" si="1"/>
-        <v>-6190</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="2"/>
-        <v>-18647</v>
-      </c>
-      <c r="W42">
+      <c r="U42">
         <f t="shared" si="0"/>
-        <v>9095</v>
+        <v>7109</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -4555,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>400</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -4573,7 +4333,7 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <v>124996</v>
+        <v>66040</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4585,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>400</v>
+        <v>173</v>
       </c>
       <c r="M43" t="s">
         <v>11</v>
@@ -4603,7 +4363,7 @@
         <v>6</v>
       </c>
       <c r="R43">
-        <v>133573</v>
+        <v>73984</v>
       </c>
       <c r="S43" t="s">
         <v>7</v>
@@ -4611,17 +4371,9 @@
       <c r="T43">
         <v>2047</v>
       </c>
-      <c r="U43" s="3">
-        <f t="shared" si="1"/>
-        <v>133573</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="2"/>
-        <v>133573</v>
-      </c>
-      <c r="W43">
+      <c r="U43">
         <f t="shared" si="0"/>
-        <v>8577</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -4629,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>450</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -4647,7 +4399,7 @@
         <v>4</v>
       </c>
       <c r="H44">
-        <v>135389</v>
+        <v>75974</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4659,7 +4411,7 @@
         <v>2</v>
       </c>
       <c r="L44">
-        <v>450</v>
+        <v>124</v>
       </c>
       <c r="M44" t="s">
         <v>11</v>
@@ -4677,7 +4429,7 @@
         <v>6</v>
       </c>
       <c r="R44">
-        <v>143321</v>
+        <v>86367</v>
       </c>
       <c r="S44" t="s">
         <v>7</v>
@@ -4685,17 +4437,17 @@
       <c r="T44">
         <v>2047</v>
       </c>
-      <c r="U44" s="2">
-        <f t="shared" si="1"/>
-        <v>143321</v>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>10393</v>
       </c>
       <c r="V44">
-        <f t="shared" si="2"/>
-        <v>120489</v>
+        <f>U12</f>
+        <v>9998.4</v>
       </c>
       <c r="W44">
-        <f t="shared" si="0"/>
-        <v>7932</v>
+        <f>T12</f>
+        <v>2047</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
@@ -4703,37 +4455,41 @@
         <v>9</v>
       </c>
       <c r="B45">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K45" t="s">
         <v>9</v>
       </c>
       <c r="L45">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M45" t="s">
         <v>10</v>
       </c>
       <c r="N45">
-        <v>100</v>
-      </c>
-      <c r="U45" s="3">
-        <f t="shared" si="1"/>
-        <v>-22833</v>
+        <v>125</v>
+      </c>
+      <c r="T45">
+        <f>AVERAGE(T35:T44)</f>
+        <v>1432.9</v>
+      </c>
+      <c r="U45" s="2">
+        <f>AVERAGE(U35:U44)</f>
+        <v>13242.2</v>
       </c>
       <c r="V45">
-        <f t="shared" si="2"/>
-        <v>-47575</v>
-      </c>
-      <c r="W45" s="2">
-        <f>AVERAGE(W35:W44)</f>
-        <v>13050.4</v>
+        <f>U23</f>
+        <v>13565.1</v>
+      </c>
+      <c r="W45">
+        <f>T23</f>
+        <v>1637.6</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
@@ -4741,13 +4497,13 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
@@ -4759,25 +4515,25 @@
         <v>4</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1987</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K46" t="s">
         <v>2</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="M46" t="s">
         <v>11</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
         <v>3</v>
@@ -4789,25 +4545,25 @@
         <v>6</v>
       </c>
       <c r="R46">
-        <v>23563</v>
+        <v>8648</v>
       </c>
       <c r="S46" t="s">
         <v>7</v>
       </c>
       <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <f t="shared" si="1"/>
-        <v>-24013</v>
+        <v>2047</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>6661</v>
       </c>
       <c r="V46">
-        <f t="shared" si="2"/>
-        <v>-48795</v>
+        <f>U34</f>
+        <v>12317.4</v>
       </c>
       <c r="W46">
-        <f t="shared" si="0"/>
-        <v>23563</v>
+        <f>T34</f>
+        <v>1637.6</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
@@ -4815,13 +4571,13 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>50</v>
+        <v>499</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
@@ -4833,25 +4589,25 @@
         <v>4</v>
       </c>
       <c r="H47">
-        <v>23564</v>
+        <v>10628</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K47" t="s">
         <v>2</v>
       </c>
       <c r="L47">
-        <v>50</v>
+        <v>499</v>
       </c>
       <c r="M47" t="s">
         <v>11</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="s">
         <v>3</v>
@@ -4863,25 +4619,25 @@
         <v>6</v>
       </c>
       <c r="R47">
-        <v>47586</v>
+        <v>17559</v>
       </c>
       <c r="S47" t="s">
         <v>7</v>
       </c>
       <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <f t="shared" si="1"/>
-        <v>-26603</v>
+        <v>2047</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>6931</v>
       </c>
       <c r="V47">
-        <f t="shared" si="2"/>
-        <v>-33789</v>
+        <f>U45</f>
+        <v>13242.2</v>
       </c>
       <c r="W47">
-        <f t="shared" si="0"/>
-        <v>24022</v>
+        <f>T45</f>
+        <v>1432.9</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
@@ -4889,466 +4645,443 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>19546</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>2047</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>299</v>
+      </c>
+      <c r="M48" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>6</v>
+      </c>
+      <c r="R48">
+        <v>27822</v>
+      </c>
+      <c r="S48" t="s">
+        <v>7</v>
+      </c>
+      <c r="T48">
+        <v>2047</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>8276</v>
+      </c>
+      <c r="V48">
+        <f>U56</f>
+        <v>11444.1</v>
+      </c>
+      <c r="W48">
+        <f>T56</f>
+        <v>1637.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>196</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>29827</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>2047</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>196</v>
+      </c>
+      <c r="M49" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>6</v>
+      </c>
+      <c r="R49">
+        <v>38197</v>
+      </c>
+      <c r="S49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T49">
+        <v>2047</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>8370</v>
+      </c>
+      <c r="V49">
+        <f>U67</f>
+        <v>12451.3</v>
+      </c>
+      <c r="W49">
+        <f>T67</f>
+        <v>1432.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>421</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48">
-        <v>47587</v>
-      </c>
-      <c r="I48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L48">
-        <v>100</v>
-      </c>
-      <c r="M48" t="s">
-        <v>11</v>
-      </c>
-      <c r="N48">
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>18198</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>421</v>
+      </c>
+      <c r="M50" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50">
         <v>1</v>
       </c>
-      <c r="O48" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48">
-        <v>2</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>6</v>
-      </c>
-      <c r="R48">
-        <v>71171</v>
-      </c>
-      <c r="S48" t="s">
-        <v>7</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3">
-        <f t="shared" si="1"/>
-        <v>-12028</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="2"/>
-        <v>-20458</v>
-      </c>
-      <c r="W48">
+      <c r="O50" t="s">
+        <v>3</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>6</v>
+      </c>
+      <c r="R50">
+        <v>42302</v>
+      </c>
+      <c r="S50" t="s">
+        <v>7</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
         <f t="shared" si="0"/>
-        <v>23584</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>150</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49">
+        <v>24104</v>
+      </c>
+      <c r="V50">
+        <f>U78</f>
+        <v>14086.5</v>
+      </c>
+      <c r="W50">
+        <f>T78</f>
+        <v>1228.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>236</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>44311</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>2047</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>236</v>
+      </c>
+      <c r="M51" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>6</v>
+      </c>
+      <c r="R51">
+        <v>53377</v>
+      </c>
+      <c r="S51" t="s">
+        <v>7</v>
+      </c>
+      <c r="T51">
+        <v>2047</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>9066</v>
+      </c>
+      <c r="V51">
+        <f>U89</f>
+        <v>8678.7999999999993</v>
+      </c>
+      <c r="W51">
+        <f>T89</f>
+        <v>1842.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>184</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>55381</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>2047</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>184</v>
+      </c>
+      <c r="M52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>6</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R52">
+        <v>63980</v>
+      </c>
+      <c r="S52" t="s">
+        <v>7</v>
+      </c>
+      <c r="T52">
+        <v>2047</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>8599</v>
+      </c>
+      <c r="V52">
+        <f>U100</f>
+        <v>10121.799999999999</v>
+      </c>
+      <c r="W52">
+        <f>T100</f>
+        <v>1637.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>325</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
         <v>1</v>
       </c>
-      <c r="E49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-      <c r="G49" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49">
-        <v>71172</v>
-      </c>
-      <c r="I49" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
-        <v>2</v>
-      </c>
-      <c r="L49">
-        <v>150</v>
-      </c>
-      <c r="M49" t="s">
-        <v>11</v>
-      </c>
-      <c r="N49">
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>43981</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>325</v>
+      </c>
+      <c r="M53" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53">
         <v>1</v>
       </c>
-      <c r="O49" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>6</v>
-      </c>
-      <c r="R49">
-        <v>93382</v>
-      </c>
-      <c r="S49" t="s">
-        <v>7</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <f t="shared" si="1"/>
-        <v>-71</v>
-      </c>
-      <c r="V49">
-        <f t="shared" si="2"/>
-        <v>-9272</v>
-      </c>
-      <c r="W49">
+      <c r="O53" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>7</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>6</v>
+      </c>
+      <c r="R53">
+        <v>69964</v>
+      </c>
+      <c r="S53" t="s">
+        <v>7</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
         <f t="shared" si="0"/>
-        <v>22210</v>
-      </c>
-      <c r="Y49">
-        <v>12835.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>200</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-      <c r="G50" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50">
-        <v>95193</v>
-      </c>
-      <c r="I50" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50">
-        <v>2047</v>
-      </c>
-      <c r="K50" t="s">
-        <v>2</v>
-      </c>
-      <c r="L50">
-        <v>200</v>
-      </c>
-      <c r="M50" t="s">
-        <v>11</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50" t="s">
-        <v>3</v>
-      </c>
-      <c r="P50">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>6</v>
-      </c>
-      <c r="R50">
-        <v>103128</v>
-      </c>
-      <c r="S50" t="s">
-        <v>7</v>
-      </c>
-      <c r="T50">
-        <v>2047</v>
-      </c>
-      <c r="U50" s="3">
-        <f t="shared" si="1"/>
-        <v>-1373</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="2"/>
-        <v>-9100</v>
-      </c>
-      <c r="W50">
-        <f t="shared" si="0"/>
-        <v>7935</v>
-      </c>
-      <c r="Y50">
-        <v>11534.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>250</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="G51" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51">
-        <v>104943</v>
-      </c>
-      <c r="I51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J51">
-        <v>2047</v>
-      </c>
-      <c r="K51" t="s">
-        <v>2</v>
-      </c>
-      <c r="L51">
-        <v>250</v>
-      </c>
-      <c r="M51" t="s">
-        <v>11</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51" t="s">
-        <v>3</v>
-      </c>
-      <c r="P51">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>6</v>
-      </c>
-      <c r="R51">
-        <v>112494</v>
-      </c>
-      <c r="S51" t="s">
-        <v>7</v>
-      </c>
-      <c r="T51">
-        <v>2047</v>
-      </c>
-      <c r="U51" s="3">
-        <f t="shared" si="1"/>
-        <v>-1567</v>
-      </c>
-      <c r="V51">
-        <f t="shared" si="2"/>
-        <v>-10662</v>
-      </c>
-      <c r="W51">
-        <f t="shared" si="0"/>
-        <v>7551</v>
-      </c>
-      <c r="Y51">
-        <v>12696.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>300</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>6</v>
-      </c>
-      <c r="G52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52">
-        <v>114322</v>
-      </c>
-      <c r="I52" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52">
-        <v>2047</v>
-      </c>
-      <c r="K52" t="s">
-        <v>2</v>
-      </c>
-      <c r="L52">
-        <v>300</v>
-      </c>
-      <c r="M52" t="s">
-        <v>11</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52">
-        <v>6</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>6</v>
-      </c>
-      <c r="R52">
-        <v>121770</v>
-      </c>
-      <c r="S52" t="s">
-        <v>7</v>
-      </c>
-      <c r="T52">
-        <v>2047</v>
-      </c>
-      <c r="U52" s="3">
-        <f t="shared" si="1"/>
-        <v>-3226</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="2"/>
-        <v>-11803</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="0"/>
-        <v>7448</v>
-      </c>
-      <c r="Y52">
-        <v>13050.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>350</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53">
-        <v>7</v>
-      </c>
-      <c r="G53" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53">
-        <v>123556</v>
-      </c>
-      <c r="I53" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53">
-        <v>2047</v>
-      </c>
-      <c r="K53" t="s">
-        <v>2</v>
-      </c>
-      <c r="L53">
-        <v>350</v>
-      </c>
-      <c r="M53" t="s">
-        <v>11</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53" t="s">
-        <v>3</v>
-      </c>
-      <c r="P53">
-        <v>7</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R53">
-        <v>130526</v>
-      </c>
-      <c r="S53" t="s">
-        <v>7</v>
-      </c>
-      <c r="T53">
-        <v>2047</v>
-      </c>
-      <c r="U53" s="3">
-        <f t="shared" si="1"/>
-        <v>-4863</v>
-      </c>
-      <c r="V53">
-        <f t="shared" si="2"/>
-        <v>-12795</v>
-      </c>
-      <c r="W53">
-        <f t="shared" si="0"/>
-        <v>6970</v>
-      </c>
-      <c r="Y53">
-        <v>13908.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+        <v>25983</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -5366,7 +5099,7 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <v>132323</v>
+        <v>71966</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5378,7 +5111,7 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s">
         <v>11</v>
@@ -5396,7 +5129,7 @@
         <v>6</v>
       </c>
       <c r="R54">
-        <v>140393</v>
+        <v>81042</v>
       </c>
       <c r="S54" t="s">
         <v>7</v>
@@ -5404,28 +5137,17 @@
       <c r="T54">
         <v>2047</v>
       </c>
-      <c r="U54" s="3">
-        <f t="shared" si="1"/>
-        <v>140393</v>
-      </c>
-      <c r="V54">
-        <f t="shared" si="2"/>
-        <v>140393</v>
-      </c>
-      <c r="W54">
+      <c r="U54">
         <f t="shared" si="0"/>
-        <v>8070</v>
-      </c>
-      <c r="Y54">
-        <v>15165.7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+        <v>9076</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55">
-        <v>450</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -5443,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>142206</v>
+        <v>83040</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5455,7 +5177,7 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>450</v>
+        <v>216</v>
       </c>
       <c r="M55" t="s">
         <v>11</v>
@@ -5473,7 +5195,7 @@
         <v>6</v>
       </c>
       <c r="R55">
-        <v>149936</v>
+        <v>90415</v>
       </c>
       <c r="S55" t="s">
         <v>7</v>
@@ -5481,69 +5203,51 @@
       <c r="T55">
         <v>2047</v>
       </c>
-      <c r="U55" s="2">
-        <f t="shared" si="1"/>
-        <v>149936</v>
-      </c>
-      <c r="V55">
-        <f t="shared" si="2"/>
-        <v>126373</v>
-      </c>
-      <c r="W55">
+      <c r="U55">
         <f t="shared" si="0"/>
-        <v>7730</v>
-      </c>
-      <c r="Y55">
-        <v>16071.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+        <v>7375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="K56" t="s">
         <v>9</v>
       </c>
       <c r="L56">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="M56" t="s">
         <v>10</v>
       </c>
       <c r="N56">
-        <v>125</v>
-      </c>
-      <c r="U56" s="3">
-        <f t="shared" si="1"/>
-        <v>-23564</v>
-      </c>
-      <c r="V56">
-        <f t="shared" si="2"/>
-        <v>-47586</v>
-      </c>
-      <c r="W56" s="2">
-        <f>AVERAGE(W46:W55)</f>
-        <v>13908.3</v>
-      </c>
-      <c r="Y56">
-        <v>17364.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="T56">
+        <f>AVERAGE(T46:T55)</f>
+        <v>1637.6</v>
+      </c>
+      <c r="U56" s="2">
+        <f>AVERAGE(U46:U55)</f>
+        <v>11444.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -5561,7 +5265,7 @@
         <v>4</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>-20000</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
@@ -5573,7 +5277,7 @@
         <v>2</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="M57" t="s">
         <v>11</v>
@@ -5591,7 +5295,7 @@
         <v>6</v>
       </c>
       <c r="R57">
-        <v>22896</v>
+        <v>4087</v>
       </c>
       <c r="S57" t="s">
         <v>7</v>
@@ -5599,34 +5303,23 @@
       <c r="T57">
         <v>0</v>
       </c>
-      <c r="U57" s="3">
-        <f t="shared" si="1"/>
-        <v>-24691</v>
-      </c>
-      <c r="V57">
-        <f t="shared" si="2"/>
-        <v>-48275</v>
-      </c>
-      <c r="W57">
+      <c r="U57">
         <f t="shared" si="0"/>
-        <v>22896</v>
-      </c>
-      <c r="Y57">
-        <v>18629.400000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24087</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
@@ -5638,25 +5331,25 @@
         <v>4</v>
       </c>
       <c r="H58">
-        <v>22897</v>
+        <v>6081</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K58" t="s">
         <v>2</v>
       </c>
       <c r="L58">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="M58" t="s">
         <v>11</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="s">
         <v>3</v>
@@ -5668,36 +5361,25 @@
         <v>6</v>
       </c>
       <c r="R58">
-        <v>46507</v>
+        <v>12716</v>
       </c>
       <c r="S58" t="s">
         <v>7</v>
       </c>
       <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <f t="shared" si="1"/>
-        <v>-24665</v>
-      </c>
-      <c r="V58">
-        <f t="shared" si="2"/>
-        <v>-46875</v>
-      </c>
-      <c r="W58">
+        <v>2047</v>
+      </c>
+      <c r="U58">
         <f t="shared" si="0"/>
-        <v>23610</v>
-      </c>
-      <c r="Y58">
-        <v>19929.599999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+        <v>6635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -5715,7 +5397,7 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>46508</v>
+        <v>-7283</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
@@ -5727,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="M59" t="s">
         <v>11</v>
@@ -5745,7 +5427,7 @@
         <v>6</v>
       </c>
       <c r="R59">
-        <v>70636</v>
+        <v>17874</v>
       </c>
       <c r="S59" t="s">
         <v>7</v>
@@ -5753,31 +5435,23 @@
       <c r="T59">
         <v>0</v>
       </c>
-      <c r="U59" s="3">
-        <f t="shared" si="1"/>
-        <v>-24557</v>
-      </c>
-      <c r="V59">
-        <f t="shared" si="2"/>
-        <v>-32492</v>
-      </c>
-      <c r="W59">
+      <c r="U59">
         <f t="shared" si="0"/>
-        <v>24128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+        <v>25157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60">
-        <v>150</v>
+        <v>413</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
@@ -5789,25 +5463,25 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>70637</v>
+        <v>19870</v>
       </c>
       <c r="I60" t="s">
         <v>5</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K60" t="s">
         <v>2</v>
       </c>
       <c r="L60">
-        <v>150</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s">
         <v>11</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="s">
         <v>3</v>
@@ -5819,39 +5493,31 @@
         <v>6</v>
       </c>
       <c r="R60">
-        <v>93422</v>
+        <v>26653</v>
       </c>
       <c r="S60" t="s">
         <v>7</v>
       </c>
       <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3">
-        <f t="shared" si="1"/>
-        <v>-11521</v>
-      </c>
-      <c r="V60">
-        <f t="shared" si="2"/>
-        <v>-19072</v>
-      </c>
-      <c r="W60">
+        <v>2047</v>
+      </c>
+      <c r="U60">
         <f t="shared" si="0"/>
-        <v>22785</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+        <v>6783</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61">
-        <v>200</v>
+        <v>416</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
@@ -5863,25 +5529,25 @@
         <v>4</v>
       </c>
       <c r="H61">
-        <v>93423</v>
+        <v>28625</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K61" t="s">
         <v>2</v>
       </c>
       <c r="L61">
-        <v>200</v>
+        <v>416</v>
       </c>
       <c r="M61" t="s">
         <v>11</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="s">
         <v>3</v>
@@ -5893,33 +5559,25 @@
         <v>6</v>
       </c>
       <c r="R61">
-        <v>116892</v>
+        <v>36138</v>
       </c>
       <c r="S61" t="s">
         <v>7</v>
       </c>
       <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-      <c r="V61">
-        <f t="shared" si="2"/>
-        <v>-4878</v>
-      </c>
-      <c r="W61">
+        <v>2047</v>
+      </c>
+      <c r="U61">
         <f t="shared" si="0"/>
-        <v>23469</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+        <v>7513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62">
-        <v>250</v>
+        <v>414</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -5937,7 +5595,7 @@
         <v>4</v>
       </c>
       <c r="H62">
-        <v>118681</v>
+        <v>38141</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5949,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>250</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s">
         <v>11</v>
@@ -5967,7 +5625,7 @@
         <v>6</v>
       </c>
       <c r="R62">
-        <v>125838</v>
+        <v>46308</v>
       </c>
       <c r="S62" t="s">
         <v>7</v>
@@ -5975,25 +5633,17 @@
       <c r="T62">
         <v>2047</v>
       </c>
-      <c r="U62" s="3">
-        <f t="shared" si="1"/>
-        <v>2282</v>
-      </c>
-      <c r="V62">
-        <f t="shared" si="2"/>
-        <v>-4688</v>
-      </c>
-      <c r="W62">
+      <c r="U62">
         <f t="shared" si="0"/>
-        <v>7157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+        <v>8167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -6011,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <v>127620</v>
+        <v>48304</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -6023,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="M63" t="s">
         <v>11</v>
@@ -6041,7 +5691,7 @@
         <v>6</v>
       </c>
       <c r="R63">
-        <v>134089</v>
+        <v>55062</v>
       </c>
       <c r="S63" t="s">
         <v>7</v>
@@ -6049,25 +5699,17 @@
       <c r="T63">
         <v>2047</v>
       </c>
-      <c r="U63" s="3">
-        <f t="shared" si="1"/>
-        <v>1766</v>
-      </c>
-      <c r="V63">
-        <f t="shared" si="2"/>
-        <v>-6304</v>
-      </c>
-      <c r="W63">
+      <c r="U63">
         <f t="shared" si="0"/>
-        <v>6469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+        <v>6758</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64">
-        <v>350</v>
+        <v>477</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -6085,7 +5727,7 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <v>135871</v>
+        <v>57067</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
@@ -6097,7 +5739,7 @@
         <v>2</v>
       </c>
       <c r="L64">
-        <v>350</v>
+        <v>477</v>
       </c>
       <c r="M64" t="s">
         <v>11</v>
@@ -6115,7 +5757,7 @@
         <v>6</v>
       </c>
       <c r="R64">
-        <v>142227</v>
+        <v>65544</v>
       </c>
       <c r="S64" t="s">
         <v>7</v>
@@ -6123,25 +5765,17 @@
       <c r="T64">
         <v>2047</v>
       </c>
-      <c r="U64" s="3">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="V64">
-        <f t="shared" si="2"/>
-        <v>-7709</v>
-      </c>
-      <c r="W64">
+      <c r="U64">
         <f t="shared" si="0"/>
-        <v>6356</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8477</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
       <c r="B65">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -6159,7 +5793,7 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>144020</v>
+        <v>67552</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
@@ -6171,7 +5805,7 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="M65" t="s">
         <v>11</v>
@@ -6189,7 +5823,7 @@
         <v>6</v>
       </c>
       <c r="R65">
-        <v>152201</v>
+        <v>74457</v>
       </c>
       <c r="S65" t="s">
         <v>7</v>
@@ -6197,31 +5831,23 @@
       <c r="T65">
         <v>2047</v>
       </c>
-      <c r="U65" s="3">
-        <f t="shared" si="1"/>
-        <v>152201</v>
-      </c>
-      <c r="V65">
-        <f t="shared" si="2"/>
-        <v>152201</v>
-      </c>
-      <c r="W65">
+      <c r="U65">
         <f t="shared" si="0"/>
-        <v>8181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
       <c r="B66">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>3</v>
@@ -6233,25 +5859,25 @@
         <v>4</v>
       </c>
       <c r="H66">
-        <v>154007</v>
+        <v>54458</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
       </c>
       <c r="J66">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K66" t="s">
         <v>2</v>
       </c>
       <c r="L66">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="M66" t="s">
         <v>11</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="s">
         <v>3</v>
@@ -6263,77 +5889,65 @@
         <v>6</v>
       </c>
       <c r="R66">
-        <v>160613</v>
+        <v>78489</v>
       </c>
       <c r="S66" t="s">
         <v>7</v>
       </c>
       <c r="T66">
-        <v>2047</v>
-      </c>
-      <c r="U66" s="2">
-        <f t="shared" si="1"/>
-        <v>160613</v>
-      </c>
-      <c r="V66">
-        <f t="shared" si="2"/>
-        <v>137717</v>
-      </c>
-      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="U66">
         <f t="shared" si="0"/>
-        <v>6606</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+        <v>24031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
       <c r="B67">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="K67" t="s">
         <v>9</v>
       </c>
       <c r="L67">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="M67" t="s">
         <v>10</v>
       </c>
       <c r="N67">
-        <v>150</v>
-      </c>
-      <c r="U67" s="3">
-        <f t="shared" si="1"/>
-        <v>-22897</v>
-      </c>
-      <c r="V67">
-        <f t="shared" si="2"/>
-        <v>-46507</v>
-      </c>
-      <c r="W67" s="2">
-        <f>AVERAGE(W57:W66)</f>
-        <v>15165.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="T67">
+        <f>AVERAGE(T57:T66)</f>
+        <v>1432.9</v>
+      </c>
+      <c r="U67" s="2">
+        <f>AVERAGE(U57:U66)</f>
+        <v>12451.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>3</v>
@@ -6345,25 +5959,25 @@
         <v>4</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1983</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K68" t="s">
         <v>2</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="M68" t="s">
         <v>11</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="s">
         <v>3</v>
@@ -6375,33 +5989,25 @@
         <v>6</v>
       </c>
       <c r="R68">
-        <v>22104</v>
+        <v>9492</v>
       </c>
       <c r="S68" t="s">
         <v>7</v>
       </c>
       <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68" s="3">
-        <f t="shared" si="1"/>
-        <v>-24404</v>
-      </c>
-      <c r="V68">
-        <f t="shared" si="2"/>
-        <v>-48532</v>
-      </c>
-      <c r="W68">
-        <f t="shared" ref="W67:W110" si="3">R68-H68</f>
-        <v>22104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U68">
+        <f t="shared" ref="U67:U99" si="1">R68-H68</f>
+        <v>7509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -6419,7 +6025,7 @@
         <v>4</v>
       </c>
       <c r="H69">
-        <v>22105</v>
+        <v>-10507</v>
       </c>
       <c r="I69" t="s">
         <v>5</v>
@@ -6431,7 +6037,7 @@
         <v>2</v>
       </c>
       <c r="L69">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="M69" t="s">
         <v>11</v>
@@ -6449,7 +6055,7 @@
         <v>6</v>
       </c>
       <c r="R69">
-        <v>45554</v>
+        <v>13793</v>
       </c>
       <c r="S69" t="s">
         <v>7</v>
@@ -6457,31 +6063,23 @@
       <c r="T69">
         <v>0</v>
       </c>
-      <c r="U69" s="3">
+      <c r="U69">
         <f t="shared" si="1"/>
-        <v>-25083</v>
-      </c>
-      <c r="V69">
-        <f t="shared" si="2"/>
-        <v>-47868</v>
-      </c>
-      <c r="W69">
-        <f t="shared" si="3"/>
-        <v>23449</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
         <v>3</v>
@@ -6493,25 +6091,25 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>45555</v>
+        <v>15781</v>
       </c>
       <c r="I70" t="s">
         <v>5</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K70" t="s">
         <v>2</v>
       </c>
       <c r="L70">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M70" t="s">
         <v>11</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="s">
         <v>3</v>
@@ -6523,33 +6121,25 @@
         <v>6</v>
       </c>
       <c r="R70">
-        <v>68046</v>
+        <v>23547</v>
       </c>
       <c r="S70" t="s">
         <v>7</v>
       </c>
       <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70" s="3">
+        <v>2047</v>
+      </c>
+      <c r="U70">
         <f t="shared" si="1"/>
-        <v>-25377</v>
-      </c>
-      <c r="V70">
-        <f t="shared" si="2"/>
-        <v>-48846</v>
-      </c>
-      <c r="W70">
-        <f t="shared" si="3"/>
-        <v>22491</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7766</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -6567,7 +6157,7 @@
         <v>4</v>
       </c>
       <c r="H71">
-        <v>68047</v>
+        <v>3548</v>
       </c>
       <c r="I71" t="s">
         <v>5</v>
@@ -6579,7 +6169,7 @@
         <v>2</v>
       </c>
       <c r="L71">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="M71" t="s">
         <v>11</v>
@@ -6597,7 +6187,7 @@
         <v>6</v>
       </c>
       <c r="R71">
-        <v>90463</v>
+        <v>27702</v>
       </c>
       <c r="S71" t="s">
         <v>7</v>
@@ -6605,25 +6195,17 @@
       <c r="T71">
         <v>0</v>
       </c>
-      <c r="U71" s="3">
+      <c r="U71">
         <f t="shared" si="1"/>
-        <v>-28218</v>
-      </c>
-      <c r="V71">
-        <f t="shared" si="2"/>
-        <v>-35375</v>
-      </c>
-      <c r="W71">
-        <f t="shared" si="3"/>
-        <v>22416</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+        <v>24154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -6641,7 +6223,7 @@
         <v>4</v>
       </c>
       <c r="H72">
-        <v>90464</v>
+        <v>7703</v>
       </c>
       <c r="I72" t="s">
         <v>5</v>
@@ -6653,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="L72">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="M72" t="s">
         <v>11</v>
@@ -6671,7 +6253,7 @@
         <v>6</v>
       </c>
       <c r="R72">
-        <v>112931</v>
+        <v>31314</v>
       </c>
       <c r="S72" t="s">
         <v>7</v>
@@ -6679,31 +6261,23 @@
       <c r="T72">
         <v>0</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72">
         <f t="shared" si="1"/>
-        <v>-14689</v>
-      </c>
-      <c r="V72">
-        <f t="shared" si="2"/>
-        <v>-21158</v>
-      </c>
-      <c r="W72">
-        <f t="shared" si="3"/>
-        <v>22467</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+        <v>23611</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73">
-        <v>250</v>
+        <v>445</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
         <v>3</v>
@@ -6715,25 +6289,25 @@
         <v>4</v>
       </c>
       <c r="H73">
-        <v>112932</v>
+        <v>33302</v>
       </c>
       <c r="I73" t="s">
         <v>5</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K73" t="s">
         <v>2</v>
       </c>
       <c r="L73">
-        <v>250</v>
+        <v>445</v>
       </c>
       <c r="M73" t="s">
         <v>11</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="s">
         <v>3</v>
@@ -6745,33 +6319,25 @@
         <v>6</v>
       </c>
       <c r="R73">
-        <v>135069</v>
+        <v>40916</v>
       </c>
       <c r="S73" t="s">
         <v>7</v>
       </c>
       <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73" s="3">
+        <v>2047</v>
+      </c>
+      <c r="U73">
         <f t="shared" si="1"/>
-        <v>-802</v>
-      </c>
-      <c r="V73">
-        <f t="shared" si="2"/>
-        <v>-7158</v>
-      </c>
-      <c r="W73">
-        <f t="shared" si="3"/>
-        <v>22137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7614</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
@@ -6789,7 +6355,7 @@
         <v>4</v>
       </c>
       <c r="H74">
-        <v>136854</v>
+        <v>42910</v>
       </c>
       <c r="I74" t="s">
         <v>5</v>
@@ -6801,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="L74">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c r="M74" t="s">
         <v>11</v>
@@ -6819,7 +6385,7 @@
         <v>6</v>
       </c>
       <c r="R74">
-        <v>143379</v>
+        <v>49937</v>
       </c>
       <c r="S74" t="s">
         <v>7</v>
@@ -6827,25 +6393,17 @@
       <c r="T74">
         <v>2047</v>
       </c>
-      <c r="U74" s="3">
+      <c r="U74">
         <f t="shared" si="1"/>
-        <v>-641</v>
-      </c>
-      <c r="V74">
-        <f t="shared" si="2"/>
-        <v>-8822</v>
-      </c>
-      <c r="W74">
-        <f t="shared" si="3"/>
-        <v>6525</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7027</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -6863,7 +6421,7 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>145159</v>
+        <v>51936</v>
       </c>
       <c r="I75" t="s">
         <v>5</v>
@@ -6875,7 +6433,7 @@
         <v>2</v>
       </c>
       <c r="L75">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M75" t="s">
         <v>11</v>
@@ -6893,7 +6451,7 @@
         <v>6</v>
       </c>
       <c r="R75">
-        <v>151522</v>
+        <v>59680</v>
       </c>
       <c r="S75" t="s">
         <v>7</v>
@@ -6901,25 +6459,17 @@
       <c r="T75">
         <v>2047</v>
       </c>
-      <c r="U75" s="3">
+      <c r="U75">
         <f t="shared" si="1"/>
-        <v>-2485</v>
-      </c>
-      <c r="V75">
-        <f t="shared" si="2"/>
-        <v>-9091</v>
-      </c>
-      <c r="W75">
-        <f t="shared" si="3"/>
-        <v>6363</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7744</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -6937,7 +6487,7 @@
         <v>4</v>
       </c>
       <c r="H76">
-        <v>153310</v>
+        <v>61700</v>
       </c>
       <c r="I76" t="s">
         <v>5</v>
@@ -6949,7 +6499,7 @@
         <v>2</v>
       </c>
       <c r="L76">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M76" t="s">
         <v>11</v>
@@ -6967,7 +6517,7 @@
         <v>6</v>
       </c>
       <c r="R76">
-        <v>159761</v>
+        <v>69096</v>
       </c>
       <c r="S76" t="s">
         <v>7</v>
@@ -6975,31 +6525,23 @@
       <c r="T76">
         <v>2047</v>
       </c>
-      <c r="U76" s="3">
-        <f t="shared" ref="U76:U110" si="4">R76-H67</f>
-        <v>159761</v>
-      </c>
-      <c r="V76">
-        <f t="shared" ref="V76:V110" si="5">R76-R67</f>
-        <v>159761</v>
-      </c>
-      <c r="W76">
-        <f t="shared" si="3"/>
-        <v>6451</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U76">
+        <f t="shared" si="1"/>
+        <v>7396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77">
-        <v>450</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
         <v>3</v>
@@ -7011,25 +6553,25 @@
         <v>4</v>
       </c>
       <c r="H77">
-        <v>161536</v>
+        <v>49097</v>
       </c>
       <c r="I77" t="s">
         <v>5</v>
       </c>
       <c r="J77">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K77" t="s">
         <v>2</v>
       </c>
       <c r="L77">
-        <v>450</v>
+        <v>211</v>
       </c>
       <c r="M77" t="s">
         <v>11</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="s">
         <v>3</v>
@@ -7041,77 +6583,65 @@
         <v>6</v>
       </c>
       <c r="R77">
-        <v>167848</v>
+        <v>72841</v>
       </c>
       <c r="S77" t="s">
         <v>7</v>
       </c>
       <c r="T77">
-        <v>2047</v>
-      </c>
-      <c r="U77" s="2">
-        <f t="shared" si="4"/>
-        <v>167848</v>
-      </c>
-      <c r="V77">
-        <f t="shared" si="5"/>
-        <v>145744</v>
-      </c>
-      <c r="W77">
-        <f t="shared" si="3"/>
-        <v>6312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="1"/>
+        <v>23744</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
       <c r="B78">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="K78" t="s">
         <v>9</v>
       </c>
       <c r="L78">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="M78" t="s">
         <v>10</v>
       </c>
       <c r="N78">
-        <v>175</v>
-      </c>
-      <c r="U78" s="3">
-        <f t="shared" si="4"/>
-        <v>-22105</v>
-      </c>
-      <c r="V78">
-        <f t="shared" si="5"/>
-        <v>-45554</v>
-      </c>
-      <c r="W78" s="2">
-        <f>AVERAGE(W68:W77)</f>
-        <v>16071.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T78">
+        <f>AVERAGE(T68:T77)</f>
+        <v>1228.2</v>
+      </c>
+      <c r="U78" s="2">
+        <f>AVERAGE(U68:U77)</f>
+        <v>14086.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
@@ -7123,25 +6653,25 @@
         <v>4</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1964</v>
       </c>
       <c r="I79" t="s">
         <v>5</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K79" t="s">
         <v>2</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="M79" t="s">
         <v>11</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="s">
         <v>3</v>
@@ -7153,39 +6683,31 @@
         <v>6</v>
       </c>
       <c r="R79">
-        <v>22167</v>
+        <v>8951</v>
       </c>
       <c r="S79" t="s">
         <v>7</v>
       </c>
       <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79" s="3">
-        <f t="shared" si="4"/>
-        <v>-23388</v>
-      </c>
-      <c r="V79">
-        <f t="shared" si="5"/>
-        <v>-45879</v>
-      </c>
-      <c r="W79">
-        <f t="shared" si="3"/>
-        <v>22167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="1"/>
+        <v>6987</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80">
-        <v>50</v>
+        <v>499</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="s">
         <v>3</v>
@@ -7197,25 +6719,25 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>22168</v>
+        <v>10934</v>
       </c>
       <c r="I80" t="s">
         <v>5</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K80" t="s">
         <v>2</v>
       </c>
       <c r="L80">
-        <v>50</v>
+        <v>499</v>
       </c>
       <c r="M80" t="s">
         <v>11</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" t="s">
         <v>3</v>
@@ -7227,39 +6749,31 @@
         <v>6</v>
       </c>
       <c r="R80">
-        <v>44239</v>
+        <v>18009</v>
       </c>
       <c r="S80" t="s">
         <v>7</v>
       </c>
       <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80" s="3">
-        <f t="shared" si="4"/>
-        <v>-23808</v>
-      </c>
-      <c r="V80">
-        <f t="shared" si="5"/>
-        <v>-46224</v>
-      </c>
-      <c r="W80">
-        <f t="shared" si="3"/>
-        <v>22071</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="1"/>
+        <v>7075</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
@@ -7271,25 +6785,25 @@
         <v>4</v>
       </c>
       <c r="H81">
-        <v>44240</v>
+        <v>20017</v>
       </c>
       <c r="I81" t="s">
         <v>5</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K81" t="s">
         <v>2</v>
       </c>
       <c r="L81">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="M81" t="s">
         <v>11</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="s">
         <v>3</v>
@@ -7301,39 +6815,31 @@
         <v>6</v>
       </c>
       <c r="R81">
-        <v>66497</v>
+        <v>26476</v>
       </c>
       <c r="S81" t="s">
         <v>7</v>
       </c>
       <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
-        <f t="shared" si="4"/>
-        <v>-23967</v>
-      </c>
-      <c r="V81">
-        <f t="shared" si="5"/>
-        <v>-46434</v>
-      </c>
-      <c r="W81">
-        <f t="shared" si="3"/>
-        <v>22257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="1"/>
+        <v>6459</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82">
-        <v>150</v>
+        <v>469</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
@@ -7345,25 +6851,25 @@
         <v>4</v>
       </c>
       <c r="H82">
-        <v>66498</v>
+        <v>28476</v>
       </c>
       <c r="I82" t="s">
         <v>5</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K82" t="s">
         <v>2</v>
       </c>
       <c r="L82">
-        <v>150</v>
+        <v>469</v>
       </c>
       <c r="M82" t="s">
         <v>11</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="s">
         <v>3</v>
@@ -7375,39 +6881,31 @@
         <v>6</v>
       </c>
       <c r="R82">
-        <v>89044</v>
+        <v>35979</v>
       </c>
       <c r="S82" t="s">
         <v>7</v>
       </c>
       <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82" s="3">
-        <f t="shared" si="4"/>
-        <v>-23888</v>
-      </c>
-      <c r="V82">
-        <f t="shared" si="5"/>
-        <v>-46025</v>
-      </c>
-      <c r="W82">
-        <f t="shared" si="3"/>
-        <v>22546</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="1"/>
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="s">
         <v>3</v>
@@ -7419,25 +6917,25 @@
         <v>4</v>
       </c>
       <c r="H83">
-        <v>89045</v>
+        <v>37967</v>
       </c>
       <c r="I83" t="s">
         <v>5</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K83" t="s">
         <v>2</v>
       </c>
       <c r="L83">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="M83" t="s">
         <v>11</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" t="s">
         <v>3</v>
@@ -7449,33 +6947,25 @@
         <v>6</v>
       </c>
       <c r="R83">
-        <v>110930</v>
+        <v>44895</v>
       </c>
       <c r="S83" t="s">
         <v>7</v>
       </c>
       <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <f t="shared" si="4"/>
-        <v>-25924</v>
-      </c>
-      <c r="V83">
-        <f t="shared" si="5"/>
-        <v>-32449</v>
-      </c>
-      <c r="W83">
-        <f t="shared" si="3"/>
-        <v>21885</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="1"/>
+        <v>6928</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -7493,7 +6983,7 @@
         <v>4</v>
       </c>
       <c r="H84">
-        <v>110931</v>
+        <v>24896</v>
       </c>
       <c r="I84" t="s">
         <v>5</v>
@@ -7505,7 +6995,7 @@
         <v>2</v>
       </c>
       <c r="L84">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="M84" t="s">
         <v>11</v>
@@ -7523,7 +7013,7 @@
         <v>6</v>
       </c>
       <c r="R84">
-        <v>133131</v>
+        <v>49021</v>
       </c>
       <c r="S84" t="s">
         <v>7</v>
@@ -7531,31 +7021,23 @@
       <c r="T84">
         <v>0</v>
       </c>
-      <c r="U84" s="3">
-        <f t="shared" si="4"/>
-        <v>-12028</v>
-      </c>
-      <c r="V84">
-        <f t="shared" si="5"/>
-        <v>-18391</v>
-      </c>
-      <c r="W84">
-        <f t="shared" si="3"/>
-        <v>22200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U84">
+        <f t="shared" si="1"/>
+        <v>24125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>3</v>
@@ -7567,25 +7049,25 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>133132</v>
+        <v>51022</v>
       </c>
       <c r="I85" t="s">
         <v>5</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K85" t="s">
         <v>2</v>
       </c>
       <c r="L85">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="M85" t="s">
         <v>11</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="s">
         <v>3</v>
@@ -7597,33 +7079,25 @@
         <v>6</v>
       </c>
       <c r="R85">
-        <v>155583</v>
+        <v>57935</v>
       </c>
       <c r="S85" t="s">
         <v>7</v>
       </c>
       <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85" s="3">
-        <f t="shared" si="4"/>
-        <v>2273</v>
-      </c>
-      <c r="V85">
-        <f t="shared" si="5"/>
-        <v>-4178</v>
-      </c>
-      <c r="W85">
-        <f t="shared" si="3"/>
-        <v>22451</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="1"/>
+        <v>6913</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -7641,7 +7115,7 @@
         <v>4</v>
       </c>
       <c r="H86">
-        <v>157317</v>
+        <v>59937</v>
       </c>
       <c r="I86" t="s">
         <v>5</v>
@@ -7653,7 +7127,7 @@
         <v>2</v>
       </c>
       <c r="L86">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="M86" t="s">
         <v>11</v>
@@ -7671,7 +7145,7 @@
         <v>6</v>
       </c>
       <c r="R86">
-        <v>163022</v>
+        <v>66891</v>
       </c>
       <c r="S86" t="s">
         <v>7</v>
@@ -7679,25 +7153,17 @@
       <c r="T86">
         <v>2047</v>
       </c>
-      <c r="U86" s="3">
-        <f t="shared" si="4"/>
-        <v>1486</v>
-      </c>
-      <c r="V86">
-        <f t="shared" si="5"/>
-        <v>-4826</v>
-      </c>
-      <c r="W86">
-        <f t="shared" si="3"/>
-        <v>5705</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U86">
+        <f t="shared" si="1"/>
+        <v>6954</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87">
-        <v>400</v>
+        <v>332</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -7715,7 +7181,7 @@
         <v>4</v>
       </c>
       <c r="H87">
-        <v>164767</v>
+        <v>68896</v>
       </c>
       <c r="I87" t="s">
         <v>5</v>
@@ -7727,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="L87">
-        <v>400</v>
+        <v>332</v>
       </c>
       <c r="M87" t="s">
         <v>11</v>
@@ -7745,7 +7211,7 @@
         <v>6</v>
       </c>
       <c r="R87">
-        <v>170833</v>
+        <v>76183</v>
       </c>
       <c r="S87" t="s">
         <v>7</v>
@@ -7753,25 +7219,17 @@
       <c r="T87">
         <v>2047</v>
       </c>
-      <c r="U87" s="3">
-        <f t="shared" si="4"/>
-        <v>170833</v>
-      </c>
-      <c r="V87">
-        <f t="shared" si="5"/>
-        <v>170833</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="3"/>
-        <v>6066</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U87">
+        <f t="shared" si="1"/>
+        <v>7287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88">
-        <v>450</v>
+        <v>236</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -7789,7 +7247,7 @@
         <v>4</v>
       </c>
       <c r="H88">
-        <v>172555</v>
+        <v>78174</v>
       </c>
       <c r="I88" t="s">
         <v>5</v>
@@ -7801,7 +7259,7 @@
         <v>2</v>
       </c>
       <c r="L88">
-        <v>450</v>
+        <v>236</v>
       </c>
       <c r="M88" t="s">
         <v>11</v>
@@ -7819,7 +7277,7 @@
         <v>6</v>
       </c>
       <c r="R88">
-        <v>178849</v>
+        <v>84731</v>
       </c>
       <c r="S88" t="s">
         <v>7</v>
@@ -7827,63 +7285,51 @@
       <c r="T88">
         <v>2047</v>
       </c>
-      <c r="U88" s="2">
-        <f t="shared" si="4"/>
-        <v>178849</v>
-      </c>
-      <c r="V88">
-        <f t="shared" si="5"/>
-        <v>156682</v>
-      </c>
-      <c r="W88">
-        <f t="shared" si="3"/>
-        <v>6294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U88">
+        <f t="shared" si="1"/>
+        <v>6557</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
       </c>
       <c r="D89">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K89" t="s">
         <v>9</v>
       </c>
       <c r="L89">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="M89" t="s">
         <v>10</v>
       </c>
       <c r="N89">
-        <v>200</v>
-      </c>
-      <c r="U89" s="3">
-        <f t="shared" si="4"/>
-        <v>-22168</v>
-      </c>
-      <c r="V89">
-        <f t="shared" si="5"/>
-        <v>-44239</v>
-      </c>
-      <c r="W89" s="2">
-        <f>AVERAGE(W79:W88)</f>
-        <v>17364.2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="T89">
+        <f>AVERAGE(T79:T88)</f>
+        <v>1842.3</v>
+      </c>
+      <c r="U89" s="2">
+        <f>AVERAGE(U79:U88)</f>
+        <v>8678.7999999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -7901,7 +7347,7 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>-20000</v>
       </c>
       <c r="I90" t="s">
         <v>5</v>
@@ -7913,7 +7359,7 @@
         <v>2</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M90" t="s">
         <v>11</v>
@@ -7931,7 +7377,7 @@
         <v>6</v>
       </c>
       <c r="R90">
-        <v>21653</v>
+        <v>3625</v>
       </c>
       <c r="S90" t="s">
         <v>7</v>
@@ -7939,31 +7385,23 @@
       <c r="T90">
         <v>0</v>
       </c>
-      <c r="U90" s="3">
-        <f t="shared" si="4"/>
-        <v>-22587</v>
-      </c>
-      <c r="V90">
-        <f t="shared" si="5"/>
-        <v>-44844</v>
-      </c>
-      <c r="W90">
-        <f t="shared" si="3"/>
-        <v>21653</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U90">
+        <f t="shared" si="1"/>
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91">
-        <v>50</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
@@ -7975,25 +7413,25 @@
         <v>4</v>
       </c>
       <c r="H91">
-        <v>21654</v>
+        <v>5638</v>
       </c>
       <c r="I91" t="s">
         <v>5</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K91" t="s">
         <v>2</v>
       </c>
       <c r="L91">
-        <v>50</v>
+        <v>274</v>
       </c>
       <c r="M91" t="s">
         <v>11</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="s">
         <v>3</v>
@@ -8005,39 +7443,31 @@
         <v>6</v>
       </c>
       <c r="R91">
-        <v>43270</v>
+        <v>12455</v>
       </c>
       <c r="S91" t="s">
         <v>7</v>
       </c>
       <c r="T91">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <f t="shared" si="4"/>
-        <v>-23228</v>
-      </c>
-      <c r="V91">
-        <f t="shared" si="5"/>
-        <v>-45774</v>
-      </c>
-      <c r="W91">
-        <f t="shared" si="3"/>
-        <v>21616</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="1"/>
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>2</v>
       </c>
       <c r="B92">
-        <v>100</v>
+        <v>324</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="s">
         <v>3</v>
@@ -8049,25 +7479,25 @@
         <v>4</v>
       </c>
       <c r="H92">
-        <v>43271</v>
+        <v>14454</v>
       </c>
       <c r="I92" t="s">
         <v>5</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K92" t="s">
         <v>2</v>
       </c>
       <c r="L92">
-        <v>100</v>
+        <v>324</v>
       </c>
       <c r="M92" t="s">
         <v>11</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" t="s">
         <v>3</v>
@@ -8079,39 +7509,31 @@
         <v>6</v>
       </c>
       <c r="R92">
-        <v>64931</v>
+        <v>21284</v>
       </c>
       <c r="S92" t="s">
         <v>7</v>
       </c>
       <c r="T92">
-        <v>0</v>
-      </c>
-      <c r="U92" s="3">
-        <f t="shared" si="4"/>
-        <v>-24114</v>
-      </c>
-      <c r="V92">
-        <f t="shared" si="5"/>
-        <v>-45999</v>
-      </c>
-      <c r="W92">
-        <f t="shared" si="3"/>
-        <v>21660</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="1"/>
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>2</v>
       </c>
       <c r="B93">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="s">
         <v>3</v>
@@ -8123,25 +7545,25 @@
         <v>4</v>
       </c>
       <c r="H93">
-        <v>64932</v>
+        <v>23290</v>
       </c>
       <c r="I93" t="s">
         <v>5</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K93" t="s">
         <v>2</v>
       </c>
       <c r="L93">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="M93" t="s">
         <v>11</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" t="s">
         <v>3</v>
@@ -8153,39 +7575,31 @@
         <v>6</v>
       </c>
       <c r="R93">
-        <v>86958</v>
+        <v>29745</v>
       </c>
       <c r="S93" t="s">
         <v>7</v>
       </c>
       <c r="T93">
-        <v>0</v>
-      </c>
-      <c r="U93" s="3">
-        <f t="shared" si="4"/>
-        <v>-23973</v>
-      </c>
-      <c r="V93">
-        <f t="shared" si="5"/>
-        <v>-46173</v>
-      </c>
-      <c r="W93">
-        <f t="shared" si="3"/>
-        <v>22026</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="1"/>
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="s">
         <v>3</v>
@@ -8197,25 +7611,25 @@
         <v>4</v>
       </c>
       <c r="H94">
-        <v>86959</v>
+        <v>31719</v>
       </c>
       <c r="I94" t="s">
         <v>5</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K94" t="s">
         <v>2</v>
       </c>
       <c r="L94">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="M94" t="s">
         <v>11</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="s">
         <v>3</v>
@@ -8227,33 +7641,25 @@
         <v>6</v>
       </c>
       <c r="R94">
-        <v>109073</v>
+        <v>38303</v>
       </c>
       <c r="S94" t="s">
         <v>7</v>
       </c>
       <c r="T94">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <f t="shared" si="4"/>
-        <v>-24059</v>
-      </c>
-      <c r="V94">
-        <f t="shared" si="5"/>
-        <v>-46510</v>
-      </c>
-      <c r="W94">
-        <f t="shared" si="3"/>
-        <v>22114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="1"/>
+        <v>6584</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95">
-        <v>250</v>
+        <v>379</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -8271,7 +7677,7 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>109074</v>
+        <v>18304</v>
       </c>
       <c r="I95" t="s">
         <v>5</v>
@@ -8283,7 +7689,7 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>250</v>
+        <v>379</v>
       </c>
       <c r="M95" t="s">
         <v>11</v>
@@ -8301,7 +7707,7 @@
         <v>6</v>
       </c>
       <c r="R95">
-        <v>130855</v>
+        <v>41888</v>
       </c>
       <c r="S95" t="s">
         <v>7</v>
@@ -8309,31 +7715,23 @@
       <c r="T95">
         <v>0</v>
       </c>
-      <c r="U95" s="3">
-        <f t="shared" si="4"/>
-        <v>-26462</v>
-      </c>
-      <c r="V95">
-        <f t="shared" si="5"/>
-        <v>-32167</v>
-      </c>
-      <c r="W95">
-        <f t="shared" si="3"/>
-        <v>21781</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U95">
+        <f t="shared" si="1"/>
+        <v>23584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
       <c r="B96">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
         <v>3</v>
@@ -8345,25 +7743,25 @@
         <v>4</v>
       </c>
       <c r="H96">
-        <v>130856</v>
+        <v>43865</v>
       </c>
       <c r="I96" t="s">
         <v>5</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K96" t="s">
         <v>2</v>
       </c>
       <c r="L96">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="M96" t="s">
         <v>11</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" t="s">
         <v>3</v>
@@ -8375,39 +7773,31 @@
         <v>6</v>
       </c>
       <c r="R96">
-        <v>152314</v>
+        <v>50404</v>
       </c>
       <c r="S96" t="s">
         <v>7</v>
       </c>
       <c r="T96">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <f t="shared" si="4"/>
-        <v>-12453</v>
-      </c>
-      <c r="V96">
-        <f t="shared" si="5"/>
-        <v>-18519</v>
-      </c>
-      <c r="W96">
-        <f t="shared" si="3"/>
-        <v>21458</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="1"/>
+        <v>6539</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
@@ -8419,25 +7809,25 @@
         <v>4</v>
       </c>
       <c r="H97">
-        <v>152315</v>
+        <v>52411</v>
       </c>
       <c r="I97" t="s">
         <v>5</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K97" t="s">
         <v>2</v>
       </c>
       <c r="L97">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="M97" t="s">
         <v>11</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="s">
         <v>3</v>
@@ -8449,33 +7839,25 @@
         <v>6</v>
       </c>
       <c r="R97">
-        <v>174664</v>
+        <v>59320</v>
       </c>
       <c r="S97" t="s">
         <v>7</v>
       </c>
       <c r="T97">
-        <v>0</v>
-      </c>
-      <c r="U97" s="3">
-        <f t="shared" si="4"/>
-        <v>2109</v>
-      </c>
-      <c r="V97">
-        <f t="shared" si="5"/>
-        <v>-4185</v>
-      </c>
-      <c r="W97">
-        <f t="shared" si="3"/>
-        <v>22349</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="1"/>
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
@@ -8493,7 +7875,7 @@
         <v>4</v>
       </c>
       <c r="H98">
-        <v>176410</v>
+        <v>61321</v>
       </c>
       <c r="I98" t="s">
         <v>5</v>
@@ -8505,7 +7887,7 @@
         <v>2</v>
       </c>
       <c r="L98">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="M98" t="s">
         <v>11</v>
@@ -8523,7 +7905,7 @@
         <v>6</v>
       </c>
       <c r="R98">
-        <v>182227</v>
+        <v>68297</v>
       </c>
       <c r="S98" t="s">
         <v>7</v>
@@ -8531,25 +7913,17 @@
       <c r="T98">
         <v>2047</v>
       </c>
-      <c r="U98" s="3">
-        <f t="shared" si="4"/>
-        <v>182227</v>
-      </c>
-      <c r="V98">
-        <f t="shared" si="5"/>
-        <v>182227</v>
-      </c>
-      <c r="W98">
-        <f t="shared" si="3"/>
-        <v>5817</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U98">
+        <f t="shared" si="1"/>
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
@@ -8567,7 +7941,7 @@
         <v>4</v>
       </c>
       <c r="H99">
-        <v>183976</v>
+        <v>70296</v>
       </c>
       <c r="I99" t="s">
         <v>5</v>
@@ -8579,7 +7953,7 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="M99" t="s">
         <v>11</v>
@@ -8597,7 +7971,7 @@
         <v>6</v>
       </c>
       <c r="R99">
-        <v>189796</v>
+        <v>77195</v>
       </c>
       <c r="S99" t="s">
         <v>7</v>
@@ -8605,1295 +7979,19 @@
       <c r="T99">
         <v>2047</v>
       </c>
-      <c r="U99" s="2">
-        <f t="shared" si="4"/>
-        <v>189796</v>
-      </c>
-      <c r="V99">
-        <f t="shared" si="5"/>
-        <v>168143</v>
-      </c>
-      <c r="W99">
-        <f t="shared" si="3"/>
-        <v>5820</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100">
-        <v>0.45</v>
-      </c>
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100">
-        <v>225</v>
-      </c>
-      <c r="K100" t="s">
-        <v>9</v>
-      </c>
-      <c r="L100">
-        <v>0.45</v>
-      </c>
-      <c r="M100" t="s">
-        <v>10</v>
-      </c>
-      <c r="N100">
-        <v>225</v>
-      </c>
-      <c r="U100" s="3">
-        <f t="shared" si="4"/>
-        <v>-21654</v>
-      </c>
-      <c r="V100">
-        <f t="shared" si="5"/>
-        <v>-43270</v>
-      </c>
-      <c r="W100" s="2">
-        <f>AVERAGE(W90:W99)</f>
-        <v>18629.400000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101" t="s">
-        <v>2</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101" t="s">
-        <v>11</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="O101" t="s">
-        <v>3</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>6</v>
-      </c>
-      <c r="R101">
-        <v>21291</v>
-      </c>
-      <c r="S101" t="s">
-        <v>7</v>
-      </c>
-      <c r="T101">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <f t="shared" si="4"/>
-        <v>-21980</v>
-      </c>
-      <c r="V101">
-        <f t="shared" si="5"/>
-        <v>-43640</v>
-      </c>
-      <c r="W101">
-        <f t="shared" si="3"/>
-        <v>21291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102">
-        <v>50</v>
-      </c>
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102">
-        <v>21292</v>
-      </c>
-      <c r="I102" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102" t="s">
-        <v>2</v>
-      </c>
-      <c r="L102">
-        <v>50</v>
-      </c>
-      <c r="M102" t="s">
-        <v>11</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>6</v>
-      </c>
-      <c r="R102">
-        <v>42832</v>
-      </c>
-      <c r="S102" t="s">
-        <v>7</v>
-      </c>
-      <c r="T102">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <f t="shared" si="4"/>
-        <v>-22100</v>
-      </c>
-      <c r="V102">
-        <f t="shared" si="5"/>
-        <v>-44126</v>
-      </c>
-      <c r="W102">
-        <f t="shared" si="3"/>
-        <v>21540</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103">
-        <v>100</v>
-      </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103" t="s">
-        <v>3</v>
-      </c>
-      <c r="F103">
-        <v>2</v>
-      </c>
-      <c r="G103" t="s">
-        <v>4</v>
-      </c>
-      <c r="H103">
-        <v>42833</v>
-      </c>
-      <c r="I103" t="s">
-        <v>5</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103" t="s">
-        <v>2</v>
-      </c>
-      <c r="L103">
-        <v>100</v>
-      </c>
-      <c r="M103" t="s">
-        <v>11</v>
-      </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-      <c r="O103" t="s">
-        <v>3</v>
-      </c>
-      <c r="P103">
-        <v>2</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>6</v>
-      </c>
-      <c r="R103">
-        <v>64376</v>
-      </c>
-      <c r="S103" t="s">
-        <v>7</v>
-      </c>
-      <c r="T103">
-        <v>0</v>
-      </c>
-      <c r="U103" s="3">
-        <f t="shared" si="4"/>
-        <v>-22583</v>
-      </c>
-      <c r="V103">
-        <f t="shared" si="5"/>
-        <v>-44697</v>
-      </c>
-      <c r="W103">
-        <f t="shared" si="3"/>
-        <v>21543</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104">
-        <v>150</v>
-      </c>
-      <c r="C104" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-      <c r="G104" t="s">
-        <v>4</v>
-      </c>
-      <c r="H104">
-        <v>64377</v>
-      </c>
-      <c r="I104" t="s">
-        <v>5</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104" t="s">
-        <v>2</v>
-      </c>
-      <c r="L104">
-        <v>150</v>
-      </c>
-      <c r="M104" t="s">
-        <v>11</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="O104" t="s">
-        <v>3</v>
-      </c>
-      <c r="P104">
-        <v>3</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>6</v>
-      </c>
-      <c r="R104">
-        <v>86086</v>
-      </c>
-      <c r="S104" t="s">
-        <v>7</v>
-      </c>
-      <c r="T104">
-        <v>0</v>
-      </c>
-      <c r="U104" s="3">
-        <f t="shared" si="4"/>
-        <v>-22988</v>
-      </c>
-      <c r="V104">
-        <f t="shared" si="5"/>
-        <v>-44769</v>
-      </c>
-      <c r="W104">
-        <f t="shared" si="3"/>
-        <v>21709</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105">
-        <v>200</v>
-      </c>
-      <c r="C105" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105" t="s">
-        <v>3</v>
-      </c>
-      <c r="F105">
-        <v>4</v>
-      </c>
-      <c r="G105" t="s">
-        <v>4</v>
-      </c>
-      <c r="H105">
-        <v>86087</v>
-      </c>
-      <c r="I105" t="s">
-        <v>5</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105" t="s">
-        <v>2</v>
-      </c>
-      <c r="L105">
-        <v>200</v>
-      </c>
-      <c r="M105" t="s">
-        <v>11</v>
-      </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="O105" t="s">
-        <v>3</v>
-      </c>
-      <c r="P105">
-        <v>4</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>6</v>
-      </c>
-      <c r="R105">
-        <v>107559</v>
-      </c>
-      <c r="S105" t="s">
-        <v>7</v>
-      </c>
-      <c r="T105">
-        <v>0</v>
-      </c>
-      <c r="U105" s="3">
-        <f t="shared" si="4"/>
-        <v>-23297</v>
-      </c>
-      <c r="V105">
-        <f t="shared" si="5"/>
-        <v>-44755</v>
-      </c>
-      <c r="W105">
-        <f t="shared" si="3"/>
-        <v>21472</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106">
-        <v>250</v>
-      </c>
-      <c r="C106" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106" t="s">
-        <v>3</v>
-      </c>
-      <c r="F106">
-        <v>5</v>
-      </c>
-      <c r="G106" t="s">
-        <v>4</v>
-      </c>
-      <c r="H106">
-        <v>107560</v>
-      </c>
-      <c r="I106" t="s">
-        <v>5</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L106">
-        <v>250</v>
-      </c>
-      <c r="M106" t="s">
-        <v>11</v>
-      </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-      <c r="O106" t="s">
-        <v>3</v>
-      </c>
-      <c r="P106">
-        <v>5</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>6</v>
-      </c>
-      <c r="R106">
-        <v>128936</v>
-      </c>
-      <c r="S106" t="s">
-        <v>7</v>
-      </c>
-      <c r="T106">
-        <v>0</v>
-      </c>
-      <c r="U106" s="3">
-        <f t="shared" si="4"/>
-        <v>-23379</v>
-      </c>
-      <c r="V106">
-        <f t="shared" si="5"/>
-        <v>-45728</v>
-      </c>
-      <c r="W106">
-        <f t="shared" si="3"/>
-        <v>21376</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107">
-        <v>300</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>3</v>
-      </c>
-      <c r="F107">
-        <v>6</v>
-      </c>
-      <c r="G107" t="s">
-        <v>4</v>
-      </c>
-      <c r="H107">
-        <v>128937</v>
-      </c>
-      <c r="I107" t="s">
-        <v>5</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107" t="s">
-        <v>2</v>
-      </c>
-      <c r="L107">
-        <v>300</v>
-      </c>
-      <c r="M107" t="s">
-        <v>11</v>
-      </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-      <c r="O107" t="s">
-        <v>3</v>
-      </c>
-      <c r="P107">
-        <v>6</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>6</v>
-      </c>
-      <c r="R107">
-        <v>150380</v>
-      </c>
-      <c r="S107" t="s">
-        <v>7</v>
-      </c>
-      <c r="T107">
-        <v>0</v>
-      </c>
-      <c r="U107" s="3">
-        <f t="shared" si="4"/>
-        <v>-26030</v>
-      </c>
-      <c r="V107">
-        <f t="shared" si="5"/>
-        <v>-31847</v>
-      </c>
-      <c r="W107">
-        <f t="shared" si="3"/>
-        <v>21443</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108">
-        <v>350</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108" t="s">
-        <v>3</v>
-      </c>
-      <c r="F108">
-        <v>7</v>
-      </c>
-      <c r="G108" t="s">
-        <v>4</v>
-      </c>
-      <c r="H108">
-        <v>150381</v>
-      </c>
-      <c r="I108" t="s">
-        <v>5</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108" t="s">
-        <v>2</v>
-      </c>
-      <c r="L108">
-        <v>350</v>
-      </c>
-      <c r="M108" t="s">
-        <v>11</v>
-      </c>
-      <c r="N108">
-        <v>1</v>
-      </c>
-      <c r="O108" t="s">
-        <v>3</v>
-      </c>
-      <c r="P108">
-        <v>7</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>6</v>
-      </c>
-      <c r="R108">
-        <v>172162</v>
-      </c>
-      <c r="S108" t="s">
-        <v>7</v>
-      </c>
-      <c r="T108">
-        <v>0</v>
-      </c>
-      <c r="U108" s="3">
-        <f t="shared" si="4"/>
-        <v>-11814</v>
-      </c>
-      <c r="V108">
-        <f t="shared" si="5"/>
-        <v>-17634</v>
-      </c>
-      <c r="W108">
-        <f t="shared" si="3"/>
-        <v>21781</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109">
-        <v>400</v>
-      </c>
-      <c r="C109" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109" t="s">
-        <v>3</v>
-      </c>
-      <c r="F109">
-        <v>8</v>
-      </c>
-      <c r="G109" t="s">
-        <v>4</v>
-      </c>
-      <c r="H109">
-        <v>172163</v>
-      </c>
-      <c r="I109" t="s">
-        <v>5</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109" t="s">
-        <v>2</v>
-      </c>
-      <c r="L109">
-        <v>400</v>
-      </c>
-      <c r="M109" t="s">
-        <v>11</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-      <c r="O109" t="s">
-        <v>3</v>
-      </c>
-      <c r="P109">
-        <v>8</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>6</v>
-      </c>
-      <c r="R109">
-        <v>193731</v>
-      </c>
-      <c r="S109" t="s">
-        <v>7</v>
-      </c>
-      <c r="T109">
-        <v>0</v>
-      </c>
-      <c r="U109" s="3">
-        <f t="shared" si="4"/>
-        <v>193731</v>
-      </c>
-      <c r="V109">
-        <f t="shared" si="5"/>
-        <v>193731</v>
-      </c>
-      <c r="W109">
-        <f t="shared" si="3"/>
-        <v>21568</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110">
-        <v>450</v>
-      </c>
-      <c r="C110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>3</v>
-      </c>
-      <c r="F110">
-        <v>9</v>
-      </c>
-      <c r="G110" t="s">
-        <v>4</v>
-      </c>
-      <c r="H110">
-        <v>195426</v>
-      </c>
-      <c r="I110" t="s">
-        <v>5</v>
-      </c>
-      <c r="J110">
-        <v>2047</v>
-      </c>
-      <c r="K110" t="s">
-        <v>2</v>
-      </c>
-      <c r="L110">
-        <v>450</v>
-      </c>
-      <c r="M110" t="s">
-        <v>11</v>
-      </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-      <c r="O110" t="s">
-        <v>3</v>
-      </c>
-      <c r="P110">
-        <v>9</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>6</v>
-      </c>
-      <c r="R110">
-        <v>200999</v>
-      </c>
-      <c r="S110" t="s">
-        <v>7</v>
-      </c>
-      <c r="T110">
-        <v>2047</v>
-      </c>
-      <c r="U110" s="2">
-        <f t="shared" si="4"/>
-        <v>200999</v>
-      </c>
-      <c r="V110">
-        <f t="shared" si="5"/>
-        <v>179708</v>
-      </c>
-      <c r="W110">
-        <f t="shared" si="3"/>
-        <v>5573</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111">
-        <v>0.5</v>
-      </c>
-      <c r="C111" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111">
-        <v>250</v>
-      </c>
-      <c r="K111" t="s">
-        <v>9</v>
-      </c>
-      <c r="L111">
-        <v>0.5</v>
-      </c>
-      <c r="M111" t="s">
-        <v>10</v>
-      </c>
-      <c r="N111">
-        <v>250</v>
-      </c>
-      <c r="W111" s="2">
-        <f>AVERAGE(W101:W110)</f>
-        <v>19929.599999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112" t="s">
-        <v>3</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112" t="s">
-        <v>4</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
-        <v>5</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112" t="s">
-        <v>2</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112" t="s">
-        <v>12</v>
-      </c>
-      <c r="O112" t="s">
-        <v>6</v>
-      </c>
-      <c r="P112">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113">
-        <v>50</v>
-      </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113" t="s">
-        <v>3</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113" t="s">
-        <v>4</v>
-      </c>
-      <c r="H113">
-        <v>45001</v>
-      </c>
-      <c r="I113" t="s">
-        <v>5</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113" t="s">
-        <v>2</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113" t="s">
-        <v>12</v>
-      </c>
-      <c r="O113" t="s">
-        <v>6</v>
-      </c>
-      <c r="P113">
-        <v>90001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114">
-        <v>100</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114" t="s">
-        <v>3</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114" t="s">
-        <v>4</v>
-      </c>
-      <c r="H114">
-        <v>90002</v>
-      </c>
-      <c r="I114" t="s">
-        <v>5</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114" t="s">
-        <v>2</v>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114" t="s">
-        <v>12</v>
-      </c>
-      <c r="O114" t="s">
-        <v>6</v>
-      </c>
-      <c r="P114">
-        <v>135002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115">
-        <v>150</v>
-      </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115" t="s">
-        <v>3</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115" t="s">
-        <v>4</v>
-      </c>
-      <c r="H115">
-        <v>135003</v>
-      </c>
-      <c r="I115" t="s">
-        <v>5</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115" t="s">
-        <v>2</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115" t="s">
-        <v>12</v>
-      </c>
-      <c r="O115" t="s">
-        <v>6</v>
-      </c>
-      <c r="P115">
-        <v>180003</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116">
-        <v>200</v>
-      </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116" t="s">
-        <v>3</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116" t="s">
-        <v>4</v>
-      </c>
-      <c r="H116">
-        <v>180004</v>
-      </c>
-      <c r="I116" t="s">
-        <v>5</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116" t="s">
-        <v>2</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116" t="s">
-        <v>12</v>
-      </c>
-      <c r="O116" t="s">
-        <v>6</v>
-      </c>
-      <c r="P116">
-        <v>225004</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117">
-        <v>250</v>
-      </c>
-      <c r="C117" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117" t="s">
-        <v>3</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117" t="s">
-        <v>4</v>
-      </c>
-      <c r="H117">
-        <v>225005</v>
-      </c>
-      <c r="I117" t="s">
-        <v>5</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117" t="s">
-        <v>2</v>
-      </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="M117" t="s">
-        <v>12</v>
-      </c>
-      <c r="O117" t="s">
-        <v>6</v>
-      </c>
-      <c r="P117">
-        <v>270005</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118">
-        <v>300</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118" t="s">
-        <v>3</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118" t="s">
-        <v>4</v>
-      </c>
-      <c r="H118">
-        <v>270006</v>
-      </c>
-      <c r="I118" t="s">
-        <v>5</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118" t="s">
-        <v>2</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118" t="s">
-        <v>12</v>
-      </c>
-      <c r="O118" t="s">
-        <v>6</v>
-      </c>
-      <c r="P118">
-        <v>315006</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119">
-        <v>350</v>
-      </c>
-      <c r="C119" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119" t="s">
-        <v>3</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119" t="s">
-        <v>4</v>
-      </c>
-      <c r="H119">
-        <v>315007</v>
-      </c>
-      <c r="I119" t="s">
-        <v>5</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119" t="s">
-        <v>2</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119" t="s">
-        <v>12</v>
-      </c>
-      <c r="O119" t="s">
-        <v>6</v>
-      </c>
-      <c r="P119">
-        <v>360007</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120">
-        <v>400</v>
-      </c>
-      <c r="C120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120" t="s">
-        <v>3</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s">
-        <v>4</v>
-      </c>
-      <c r="H120">
-        <v>360008</v>
-      </c>
-      <c r="I120" t="s">
-        <v>5</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120" t="s">
-        <v>2</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120" t="s">
-        <v>12</v>
-      </c>
-      <c r="O120" t="s">
-        <v>6</v>
-      </c>
-      <c r="P120">
-        <v>405008</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121">
-        <v>450</v>
-      </c>
-      <c r="C121" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121" t="s">
-        <v>3</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121" t="s">
-        <v>4</v>
-      </c>
-      <c r="H121">
-        <v>405009</v>
-      </c>
-      <c r="I121" t="s">
-        <v>5</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121" t="s">
-        <v>2</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121" t="s">
-        <v>12</v>
-      </c>
-      <c r="O121" t="s">
-        <v>6</v>
-      </c>
-      <c r="P121">
-        <v>450009</v>
+      <c r="U99">
+        <f t="shared" si="1"/>
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T100">
+        <f>AVERAGE(T90:T99)</f>
+        <v>1637.6</v>
+      </c>
+      <c r="U100" s="2">
+        <f>AVERAGE(U90:U99)</f>
+        <v>10121.799999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9904,10 +8002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B6230B-E967-4A50-80F0-2097EBDAFE8F}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9917,138 +8015,254 @@
     <col min="3" max="3" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="B2">
-        <v>12835.8</v>
+        <v>9998.4</v>
       </c>
       <c r="C2" s="1">
         <f>B2*50/1000000</f>
-        <v>0.64178999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.49991999999999998</v>
+      </c>
+      <c r="D2">
+        <v>2047</v>
+      </c>
+      <c r="E2">
+        <f>D2/C2</f>
+        <v>4094.6551448231721</v>
+      </c>
+      <c r="F2">
+        <f>FLOOR(E2,1)</f>
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B3">
-        <v>11534.7</v>
+        <v>13565.1</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C15" si="0">B3*50/1000000</f>
-        <v>0.576735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.67825500000000005</v>
+      </c>
+      <c r="D3">
+        <v>1637.6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="1">D3/C3</f>
+        <v>2414.4311505259816</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F15" si="2">FLOOR(E3,1)</f>
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="B4">
-        <v>12696.2</v>
+        <v>12317.4</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.63480999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.61587000000000003</v>
+      </c>
+      <c r="D4">
+        <v>1637.6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2659.0027116112165</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="B5">
-        <v>13050.4</v>
+        <v>13242.2</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.65251999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.66210999999999998</v>
+      </c>
+      <c r="D5">
+        <v>1432.9</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2164.1419099545396</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="B6">
-        <v>13908.3</v>
+        <v>11444.1</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.69541500000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.57220499999999996</v>
+      </c>
+      <c r="D6">
+        <v>1637.6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2861.9113779152576</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="B7">
-        <v>15165.7</v>
+        <v>12451.3</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.75828499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.62256500000000004</v>
+      </c>
+      <c r="D7">
+        <v>1432.9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2301.6070611100849</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="B8">
-        <v>16071.5</v>
+        <v>14086.5</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.80357500000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.70432499999999998</v>
+      </c>
+      <c r="D8">
+        <v>1228.2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1743.7972526887447</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="B9">
-        <v>17364.2</v>
+        <v>8678.7999999999993</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.86821000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.43393999999999994</v>
+      </c>
+      <c r="D9">
+        <v>1842.3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>4245.517813522607</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="B10">
-        <v>18629.400000000001</v>
+        <v>10121.799999999999</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.93147000000000013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.50608999999999993</v>
+      </c>
+      <c r="D10">
+        <v>1637.6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3235.7881009306648</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="B11">
-        <v>19929.599999999999</v>
+        <v>25000</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.99647999999999992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.25</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.5</v>
       </c>
@@ -10059,8 +8273,19 @@
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.5</v>
       </c>
@@ -10071,8 +8296,19 @@
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -10083,17 +8319,36 @@
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>25000</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>1.25</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
